--- a/PricerAndQutation/OptionPricer_v2_20180508.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180508.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
     <sheet name="recap" sheetId="2" r:id="rId2"/>
     <sheet name="pricer_van" sheetId="1" r:id="rId3"/>
-    <sheet name="pricer_combo" sheetId="9" r:id="rId4"/>
-    <sheet name="quote_sf" sheetId="10" r:id="rId5"/>
-    <sheet name="ref_vol_table" sheetId="4" r:id="rId6"/>
-    <sheet name="pricer_sf" sheetId="8" r:id="rId7"/>
-    <sheet name="configs" sheetId="5" r:id="rId8"/>
-    <sheet name="pricer_digit" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId4"/>
+    <sheet name="pricer_combo" sheetId="9" r:id="rId5"/>
+    <sheet name="quote_sf" sheetId="10" r:id="rId6"/>
+    <sheet name="ref_vol_table" sheetId="4" r:id="rId7"/>
+    <sheet name="pricer_sf" sheetId="8" r:id="rId8"/>
+    <sheet name="configs" sheetId="5" r:id="rId9"/>
+    <sheet name="pricer_digit" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="249">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -847,10 +848,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金信666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中金公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -863,22 +860,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交易量（千克）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权利金（每千克）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ag1806</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天物国际</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cu1807</t>
   </si>
   <si>
@@ -913,23 +894,32 @@
     <t>v1809</t>
   </si>
   <si>
-    <t>v1809</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cicc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ht</t>
+    <t>cu1807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i1809</t>
+  </si>
+  <si>
+    <t>j1809</t>
+  </si>
+  <si>
+    <t>j1809</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交回报 l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交回报 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ru1809</t>
+  </si>
+  <si>
+    <t>ru1901</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,12 +927,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="###,###,##0.0000"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
     <numFmt numFmtId="178" formatCode="###,###,##0"/>
     <numFmt numFmtId="179" formatCode="###,###,##0.0"/>
     <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="181" formatCode="0.000000000000000_ "/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -1466,13 +1458,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1666,6 +1661,10 @@
     <xf numFmtId="180" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="178" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="179" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="181" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1744,13 +1743,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="5" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1770,14 +1768,29 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>51500</v>
+        <v>51170</v>
         <stp/>
         <stp>cu1808</stp>
         <stp>LastPrice</stp>
         <tr r="P18" s="9"/>
       </tp>
       <tp>
-        <v>14815</v>
+        <v>11650</v>
+        <stp/>
+        <stp>ru1809</stp>
+        <stp>LastPrice</stp>
+        <tr r="P36" s="1"/>
+        <tr r="P37" s="1"/>
+      </tp>
+      <tp>
+        <v>13585</v>
+        <stp/>
+        <stp>ru1901</stp>
+        <stp>LastPrice</stp>
+        <tr r="P38" s="1"/>
+      </tp>
+      <tp>
+        <v>14705</v>
         <stp/>
         <stp>al1808</stp>
         <stp>LastPrice</stp>
@@ -1785,27 +1798,32 @@
         <tr r="P8" s="1"/>
       </tp>
       <tp>
-        <v>470</v>
+        <v>471</v>
         <stp/>
         <stp>i1809</stp>
         <stp>LastPrice</stp>
         <tr r="P11" s="9"/>
         <tr r="P21" s="9"/>
+        <tr r="P28" s="1"/>
+        <tr r="P29" s="1"/>
       </tp>
       <tp>
-        <v>3657</v>
+        <v>3592</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
         <tr r="P14" s="9"/>
+        <tr r="P21" s="1"/>
+        <tr r="P19" s="1"/>
+        <tr r="P20" s="1"/>
       </tp>
       <tp>
-        <v>4105</v>
+        <v>4078</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
+        <tr r="H8" s="7"/>
         <tr r="H8" s="8"/>
-        <tr r="H8" s="7"/>
       </tp>
     </main>
   </volType>
@@ -2100,10 +2118,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:R39"/>
+  <dimension ref="B1:S57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2129,11 +2147,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
     </row>
     <row r="2" spans="2:18" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:18" ht="13.5" x14ac:dyDescent="0.15">
@@ -2823,7 +2841,7 @@
         <v>160</v>
       </c>
       <c r="C18" s="92" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D18" s="93">
         <v>43222</v>
@@ -2927,7 +2945,7 @@
         <v>160</v>
       </c>
       <c r="C20" s="92" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D20" s="93">
         <v>43222</v>
@@ -2980,7 +2998,7 @@
         <v>160</v>
       </c>
       <c r="C21" s="92" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D21" s="93">
         <v>43222</v>
@@ -3084,7 +3102,7 @@
         <v>160</v>
       </c>
       <c r="C23" s="92" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D23" s="93">
         <v>43223</v>
@@ -3292,7 +3310,7 @@
         <v>160</v>
       </c>
       <c r="C27" s="92" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D27" s="93">
         <v>43227</v>
@@ -3341,7 +3359,7 @@
         <v>160</v>
       </c>
       <c r="C28" s="92" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D28" s="93">
         <v>43227</v>
@@ -3409,7 +3427,7 @@
         <v>160</v>
       </c>
       <c r="C30" s="92" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D30" s="93">
         <v>43227</v>
@@ -3477,7 +3495,7 @@
         <v>160</v>
       </c>
       <c r="C32" s="92" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D32" s="93">
         <v>43227</v>
@@ -3521,12 +3539,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B33" s="92" t="s">
         <v>160</v>
       </c>
       <c r="C33" s="92" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D33" s="93">
         <v>43227</v>
@@ -3570,12 +3588,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B34" s="92" t="s">
         <v>160</v>
       </c>
       <c r="C34" s="92" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D34" s="93">
         <v>43227</v>
@@ -3619,12 +3637,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B35" s="92" t="s">
         <v>160</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D35" s="93">
         <v>43227</v>
@@ -3668,7 +3686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B36" s="92"/>
       <c r="C36" s="92"/>
       <c r="D36" s="93"/>
@@ -3687,12 +3705,12 @@
       <c r="Q36" s="92"/>
       <c r="R36" s="92"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B37" s="92" t="s">
         <v>160</v>
       </c>
       <c r="C37" s="92" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D37" s="93">
         <v>43227</v>
@@ -3736,7 +3754,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B38" s="92"/>
       <c r="C38" s="92"/>
       <c r="D38" s="93"/>
@@ -3755,12 +3773,12 @@
       <c r="Q38" s="92"/>
       <c r="R38" s="92"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B39" s="92" t="s">
         <v>160</v>
       </c>
       <c r="C39" s="92" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D39" s="93">
         <v>43227</v>
@@ -3802,6 +3820,871 @@
       </c>
       <c r="R39" s="92" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B40" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N40" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O40" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P40" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B41" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="93">
+        <v>43229</v>
+      </c>
+      <c r="E41" s="93">
+        <v>43259</v>
+      </c>
+      <c r="F41" s="92">
+        <v>3300</v>
+      </c>
+      <c r="G41" s="92">
+        <v>30</v>
+      </c>
+      <c r="H41" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I41" s="92">
+        <v>0</v>
+      </c>
+      <c r="J41" s="92">
+        <v>0.22</v>
+      </c>
+      <c r="K41" s="92">
+        <v>10.035493930643156</v>
+      </c>
+      <c r="L41" s="92"/>
+      <c r="M41" s="92">
+        <v>0</v>
+      </c>
+      <c r="N41" s="99">
+        <v>10.035493930643156</v>
+      </c>
+      <c r="O41" s="92">
+        <v>3580</v>
+      </c>
+      <c r="P41" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q41" s="92">
+        <v>1</v>
+      </c>
+      <c r="R41" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B42" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="D42" s="93">
+        <v>43229</v>
+      </c>
+      <c r="E42" s="93">
+        <v>43259</v>
+      </c>
+      <c r="F42" s="92">
+        <v>3350</v>
+      </c>
+      <c r="G42" s="92">
+        <v>30</v>
+      </c>
+      <c r="H42" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I42" s="92">
+        <v>0</v>
+      </c>
+      <c r="J42" s="92">
+        <v>0.2225</v>
+      </c>
+      <c r="K42" s="92">
+        <v>16.979613720046018</v>
+      </c>
+      <c r="L42" s="92"/>
+      <c r="M42" s="92">
+        <v>0</v>
+      </c>
+      <c r="N42" s="99">
+        <v>16.979613720046018</v>
+      </c>
+      <c r="O42" s="92">
+        <v>3580</v>
+      </c>
+      <c r="P42" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q42" s="92">
+        <v>1</v>
+      </c>
+      <c r="R42" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B43" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="93">
+        <v>43229</v>
+      </c>
+      <c r="E43" s="93">
+        <v>43259</v>
+      </c>
+      <c r="F43" s="92">
+        <v>3400</v>
+      </c>
+      <c r="G43" s="92">
+        <v>30</v>
+      </c>
+      <c r="H43" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I43" s="92">
+        <v>0</v>
+      </c>
+      <c r="J43" s="92">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K43" s="92">
+        <v>27.012399400940012</v>
+      </c>
+      <c r="L43" s="92"/>
+      <c r="M43" s="92">
+        <v>0</v>
+      </c>
+      <c r="N43" s="99">
+        <v>27.012399400940012</v>
+      </c>
+      <c r="O43" s="92">
+        <v>3580</v>
+      </c>
+      <c r="P43" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q43" s="92">
+        <v>1</v>
+      </c>
+      <c r="R43" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B44" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N44" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O44" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B45" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="D45" s="93">
+        <v>43229</v>
+      </c>
+      <c r="E45" s="93">
+        <v>43259</v>
+      </c>
+      <c r="F45" s="92">
+        <v>49000</v>
+      </c>
+      <c r="G45" s="92">
+        <v>30</v>
+      </c>
+      <c r="H45" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I45" s="92">
+        <v>0</v>
+      </c>
+      <c r="J45" s="92">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="K45" s="92">
+        <v>143.71277212501172</v>
+      </c>
+      <c r="L45" s="92">
+        <v>30</v>
+      </c>
+      <c r="M45" s="92">
+        <v>12.587671232876712</v>
+      </c>
+      <c r="N45" s="99">
+        <v>131.12510089213501</v>
+      </c>
+      <c r="O45" s="92">
+        <v>51050</v>
+      </c>
+      <c r="P45" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q45" s="92">
+        <v>1</v>
+      </c>
+      <c r="R45" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="S45" s="6">
+        <v>2.5685622114032325E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B46" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J46" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N46" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O46" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B47" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" s="93">
+        <v>43229</v>
+      </c>
+      <c r="E47" s="93">
+        <v>43327</v>
+      </c>
+      <c r="F47" s="92">
+        <v>100</v>
+      </c>
+      <c r="G47" s="92">
+        <v>98</v>
+      </c>
+      <c r="H47" s="92">
+        <v>0.26849315068493151</v>
+      </c>
+      <c r="I47" s="92">
+        <v>0</v>
+      </c>
+      <c r="J47" s="92">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K47" s="92">
+        <v>5.7520390338440848</v>
+      </c>
+      <c r="L47" s="92"/>
+      <c r="M47" s="92">
+        <v>0</v>
+      </c>
+      <c r="N47" s="99">
+        <v>5.7520390338440848</v>
+      </c>
+      <c r="O47" s="92">
+        <v>100</v>
+      </c>
+      <c r="P47" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q47" s="92">
+        <v>1</v>
+      </c>
+      <c r="R47" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B48" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="D48" s="93">
+        <v>43229</v>
+      </c>
+      <c r="E48" s="93">
+        <v>43327</v>
+      </c>
+      <c r="F48" s="92">
+        <v>100</v>
+      </c>
+      <c r="G48" s="92">
+        <v>98</v>
+      </c>
+      <c r="H48" s="92">
+        <v>0.26849315068493151</v>
+      </c>
+      <c r="I48" s="92">
+        <v>0</v>
+      </c>
+      <c r="J48" s="92">
+        <v>0.34</v>
+      </c>
+      <c r="K48" s="92">
+        <v>-6.9817152035699195</v>
+      </c>
+      <c r="L48" s="92"/>
+      <c r="M48" s="92">
+        <v>0</v>
+      </c>
+      <c r="N48" s="99">
+        <v>6.9817152035699195</v>
+      </c>
+      <c r="O48" s="92">
+        <v>100</v>
+      </c>
+      <c r="P48" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q48" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R48" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="92"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="92"/>
+      <c r="K49" s="92"/>
+      <c r="L49" s="92"/>
+      <c r="M49" s="92"/>
+      <c r="N49" s="99"/>
+      <c r="O49" s="92"/>
+      <c r="P49" s="92"/>
+      <c r="Q49" s="92"/>
+      <c r="R49" s="92"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B50" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="93">
+        <v>43229</v>
+      </c>
+      <c r="E50" s="93">
+        <v>43259</v>
+      </c>
+      <c r="F50" s="92">
+        <v>100</v>
+      </c>
+      <c r="G50" s="92">
+        <v>30</v>
+      </c>
+      <c r="H50" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I50" s="92">
+        <v>0</v>
+      </c>
+      <c r="J50" s="92">
+        <v>0.215</v>
+      </c>
+      <c r="K50" s="92">
+        <v>2.4545962454477035</v>
+      </c>
+      <c r="L50" s="92"/>
+      <c r="M50" s="92">
+        <v>0</v>
+      </c>
+      <c r="N50" s="99">
+        <v>2.4545962454477035</v>
+      </c>
+      <c r="O50" s="92">
+        <v>100</v>
+      </c>
+      <c r="P50" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q50" s="92">
+        <v>1</v>
+      </c>
+      <c r="R50" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B51" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="D51" s="93">
+        <v>43229</v>
+      </c>
+      <c r="E51" s="93">
+        <v>43259</v>
+      </c>
+      <c r="F51" s="92">
+        <v>100</v>
+      </c>
+      <c r="G51" s="92">
+        <v>30</v>
+      </c>
+      <c r="H51" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I51" s="92">
+        <v>0</v>
+      </c>
+      <c r="J51" s="92">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="K51" s="92">
+        <v>-3.2533772011772371</v>
+      </c>
+      <c r="L51" s="92"/>
+      <c r="M51" s="92">
+        <v>0</v>
+      </c>
+      <c r="N51" s="99">
+        <v>3.2533772011772371</v>
+      </c>
+      <c r="O51" s="92">
+        <v>100</v>
+      </c>
+      <c r="P51" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q51" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R51" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="92"/>
+      <c r="H52" s="92"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="92"/>
+      <c r="K52" s="92"/>
+      <c r="L52" s="92"/>
+      <c r="M52" s="92"/>
+      <c r="N52" s="99"/>
+      <c r="O52" s="92"/>
+      <c r="P52" s="92"/>
+      <c r="Q52" s="92"/>
+      <c r="R52" s="92"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B53" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="D53" s="93">
+        <v>43229</v>
+      </c>
+      <c r="E53" s="93">
+        <v>43259</v>
+      </c>
+      <c r="F53" s="92">
+        <v>100</v>
+      </c>
+      <c r="G53" s="92">
+        <v>30</v>
+      </c>
+      <c r="H53" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I53" s="92">
+        <v>0</v>
+      </c>
+      <c r="J53" s="92">
+        <v>0.36</v>
+      </c>
+      <c r="K53" s="92">
+        <v>-4.1088485325048723</v>
+      </c>
+      <c r="L53" s="92"/>
+      <c r="M53" s="92">
+        <v>0</v>
+      </c>
+      <c r="N53" s="99">
+        <v>4.1088485325048723</v>
+      </c>
+      <c r="O53" s="92">
+        <v>100</v>
+      </c>
+      <c r="P53" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q53" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R53" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B54" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J54" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N54" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O54" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B55" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="D55" s="93">
+        <v>43229</v>
+      </c>
+      <c r="E55" s="93">
+        <v>43319</v>
+      </c>
+      <c r="F55" s="92">
+        <v>12105</v>
+      </c>
+      <c r="G55" s="92">
+        <v>90</v>
+      </c>
+      <c r="H55" s="92">
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="I55" s="92">
+        <v>0</v>
+      </c>
+      <c r="J55" s="92">
+        <v>0.31</v>
+      </c>
+      <c r="K55" s="92">
+        <v>-538.37994450441693</v>
+      </c>
+      <c r="L55" s="92">
+        <v>70</v>
+      </c>
+      <c r="M55" s="92">
+        <v>20.177260273972603</v>
+      </c>
+      <c r="N55" s="99">
+        <v>558.55720477838952</v>
+      </c>
+      <c r="O55" s="92">
+        <v>11690</v>
+      </c>
+      <c r="P55" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q55" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R55" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B56" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="D56" s="93">
+        <v>43229</v>
+      </c>
+      <c r="E56" s="93">
+        <v>43290</v>
+      </c>
+      <c r="F56" s="92">
+        <v>12105</v>
+      </c>
+      <c r="G56" s="92">
+        <v>61</v>
+      </c>
+      <c r="H56" s="92">
+        <v>0.16712328767123288</v>
+      </c>
+      <c r="I56" s="92">
+        <v>0</v>
+      </c>
+      <c r="J56" s="92">
+        <v>0.3</v>
+      </c>
+      <c r="K56" s="92">
+        <v>-396.26370370638506</v>
+      </c>
+      <c r="L56" s="92">
+        <v>70</v>
+      </c>
+      <c r="M56" s="92">
+        <v>13.675698630136988</v>
+      </c>
+      <c r="N56" s="99">
+        <v>409.93940233652205</v>
+      </c>
+      <c r="O56" s="92">
+        <v>11690</v>
+      </c>
+      <c r="P56" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q56" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R56" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B57" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="D57" s="93">
+        <v>43229</v>
+      </c>
+      <c r="E57" s="93">
+        <v>43319</v>
+      </c>
+      <c r="F57" s="92">
+        <v>12105</v>
+      </c>
+      <c r="G57" s="92">
+        <v>90</v>
+      </c>
+      <c r="H57" s="92">
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="I57" s="92">
+        <v>0</v>
+      </c>
+      <c r="J57" s="92">
+        <v>0.31</v>
+      </c>
+      <c r="K57" s="92">
+        <v>-538.37994450441693</v>
+      </c>
+      <c r="L57" s="92">
+        <v>70</v>
+      </c>
+      <c r="M57" s="92">
+        <v>20.177260273972603</v>
+      </c>
+      <c r="N57" s="99">
+        <v>558.55720477838952</v>
+      </c>
+      <c r="O57" s="92">
+        <v>11690</v>
+      </c>
+      <c r="P57" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q57" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R57" s="92" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3814,14 +4697,1044 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:U39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6"/>
+    <col min="3" max="3" width="9.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="7" style="6" customWidth="1"/>
+    <col min="5" max="11" width="9" style="6"/>
+    <col min="12" max="12" width="8.125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9" style="6"/>
+    <col min="14" max="14" width="7.25" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9" style="6"/>
+    <col min="16" max="16" width="10.125" style="6" customWidth="1"/>
+    <col min="17" max="18" width="6.5" style="6" customWidth="1"/>
+    <col min="19" max="20" width="9" style="6"/>
+    <col min="21" max="21" width="13.75" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="146" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="146"/>
+    </row>
+    <row r="2" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="27"/>
+      <c r="B8" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="19">
+        <f>IF(D8="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="20">
+        <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
+        <v>4078</v>
+      </c>
+      <c r="I8" s="19">
+        <v>3800</v>
+      </c>
+      <c r="J8" s="21">
+        <f ca="1">TODAY()</f>
+        <v>43229</v>
+      </c>
+      <c r="K8" s="21">
+        <f ca="1">J8+L8</f>
+        <v>43259</v>
+      </c>
+      <c r="L8" s="19">
+        <v>30</v>
+      </c>
+      <c r="M8" s="22">
+        <f>L8/365</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="N8" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="O8" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
+        <v>319.37984470065339</v>
+      </c>
+      <c r="P8" s="25">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="24">
+        <f>P8/10000*M8*H8*(-E8)</f>
+        <v>2.6814246575342469</v>
+      </c>
+      <c r="R8" s="24">
+        <f>O8+Q8</f>
+        <v>322.06126935818764</v>
+      </c>
+      <c r="S8" s="26">
+        <f>R8/H8</f>
+        <v>7.8975299008873873E-2</v>
+      </c>
+      <c r="T8" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
+        <v>0.80813625370410591</v>
+      </c>
+      <c r="U8" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
+        <v>3.1813219318316897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="27"/>
+      <c r="B9" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="10">
+        <f>IF(D9="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="11">
+        <v>100</v>
+      </c>
+      <c r="I9" s="10">
+        <v>100</v>
+      </c>
+      <c r="J9" s="8">
+        <f ca="1">TODAY()</f>
+        <v>43229</v>
+      </c>
+      <c r="K9" s="8">
+        <f ca="1">J9+L9</f>
+        <v>43259</v>
+      </c>
+      <c r="L9" s="10">
+        <v>30</v>
+      </c>
+      <c r="M9" s="12">
+        <f>L9/365</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="O9" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9)</f>
+        <v>3.4671141943048909</v>
+      </c>
+      <c r="P9" s="15">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="13">
+        <f>P9/10000*M9*H9*(-E9)</f>
+        <v>6.5753424657534254E-2</v>
+      </c>
+      <c r="R9" s="13">
+        <f>O9+Q9</f>
+        <v>3.5328676189624253</v>
+      </c>
+      <c r="S9" s="14">
+        <f>R9/H9</f>
+        <v>3.532867618962425E-2</v>
+      </c>
+      <c r="T9" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9,$C$4)</f>
+        <v>0.52053074724724979</v>
+      </c>
+      <c r="U9" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9)</f>
+        <v>0.11412144299254479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B10" s="13"/>
+      <c r="C10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="10">
+        <f>IF(D10="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="11">
+        <v>100</v>
+      </c>
+      <c r="I10" s="10">
+        <v>100</v>
+      </c>
+      <c r="J10" s="8">
+        <f ca="1">TODAY()</f>
+        <v>43229</v>
+      </c>
+      <c r="K10" s="8">
+        <f ca="1">J10+L10</f>
+        <v>43259</v>
+      </c>
+      <c r="L10" s="10">
+        <v>30</v>
+      </c>
+      <c r="M10" s="12">
+        <f>L10/365</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="O10" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10)</f>
+        <v>3.4671141943048909</v>
+      </c>
+      <c r="P10" s="15">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="13">
+        <f>P10/10000*M10*H10*(-E10)</f>
+        <v>6.5753424657534254E-2</v>
+      </c>
+      <c r="R10" s="13">
+        <f>O10+Q10</f>
+        <v>3.5328676189624253</v>
+      </c>
+      <c r="S10" s="14">
+        <f>R10/H10</f>
+        <v>3.532867618962425E-2</v>
+      </c>
+      <c r="T10" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10,$C$4)</f>
+        <v>0.52053074724724979</v>
+      </c>
+      <c r="U10" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10)</f>
+        <v>0.11412144299254479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B11" s="13"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B12" s="13"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B13" s="13"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B14" s="13"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B15" s="13"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B16" s="13"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B17" s="13"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B18" s="13"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B19" s="13"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B20" s="13"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B21" s="13"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B22" s="13"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B23" s="13"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B24" s="13"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B25" s="13"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B26" s="13"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B27" s="13"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B28" s="13"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B29" s="13"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B30" s="13"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B31" s="13"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B32" s="13"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B33" s="13"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B34" s="13"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B35" s="13"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B36" s="13"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B37" s="13"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B38" s="13"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B39" s="13"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>configs!$C$1:$C$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>G8:G39</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>configs!$B$1:$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>D8:D39</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>configs!$A$1:$A$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>B40:B42 C8:C39</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:Y49"/>
+  <dimension ref="B1:Y62"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41:C41"/>
+      <pane ySplit="17" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -3836,75 +5749,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="133"/>
+      <c r="C1" s="137"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="138" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="G3" s="138" t="s">
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="G3" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="L3" s="134" t="s">
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="L3" s="138" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="Q3" s="138" t="s">
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="Q3" s="142" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
     </row>
     <row r="4" spans="2:20" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="139" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="G4" s="135" t="s">
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="G4" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="L4" s="135" t="s">
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="L4" s="139" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="Q4" s="135" t="s">
+      <c r="M4" s="139"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="139"/>
+      <c r="Q4" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="135"/>
-      <c r="S4" s="135"/>
-      <c r="T4" s="135"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="137"/>
-      <c r="G5" s="132" t="s">
+      <c r="C5" s="136"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="141"/>
+      <c r="G5" s="136" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="132"/>
+      <c r="H5" s="136"/>
       <c r="I5" s="103"/>
       <c r="J5" s="104"/>
       <c r="L5" s="101" t="s">
@@ -3913,360 +5826,360 @@
       <c r="M5" s="102"/>
       <c r="N5" s="103"/>
       <c r="O5" s="104"/>
-      <c r="Q5" s="132" t="s">
+      <c r="Q5" s="136" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="132"/>
+      <c r="R5" s="136"/>
       <c r="S5" s="103"/>
       <c r="T5" s="104"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="130" t="s">
+      <c r="C6" s="136"/>
+      <c r="D6" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="131"/>
-      <c r="G6" s="132" t="s">
+      <c r="E6" s="135"/>
+      <c r="G6" s="136" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="132"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="131"/>
-      <c r="L6" s="132" t="s">
+      <c r="H6" s="136"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
+      <c r="L6" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="132"/>
-      <c r="N6" s="130" t="s">
+      <c r="M6" s="136"/>
+      <c r="N6" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="131"/>
-      <c r="Q6" s="132" t="s">
+      <c r="O6" s="135"/>
+      <c r="Q6" s="136" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="132"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="131"/>
+      <c r="R6" s="136"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="135"/>
     </row>
     <row r="7" spans="2:20" ht="2.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="130" t="s">
+      <c r="C7" s="136"/>
+      <c r="D7" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="131"/>
-      <c r="G7" s="132" t="s">
+      <c r="E7" s="135"/>
+      <c r="G7" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="132"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="131"/>
-      <c r="L7" s="132" t="s">
+      <c r="H7" s="136"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="135"/>
+      <c r="L7" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="132"/>
-      <c r="N7" s="130" t="s">
+      <c r="M7" s="136"/>
+      <c r="N7" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="131"/>
-      <c r="Q7" s="132" t="s">
+      <c r="O7" s="135"/>
+      <c r="Q7" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="132"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="131"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="134"/>
+      <c r="T7" s="135"/>
     </row>
     <row r="8" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="130">
+      <c r="C8" s="136"/>
+      <c r="D8" s="134">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="131"/>
-      <c r="G8" s="132" t="s">
+      <c r="E8" s="135"/>
+      <c r="G8" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="132"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="131"/>
-      <c r="L8" s="132" t="s">
+      <c r="H8" s="136"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="135"/>
+      <c r="L8" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="132"/>
-      <c r="N8" s="130">
+      <c r="M8" s="136"/>
+      <c r="N8" s="134">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="131"/>
-      <c r="Q8" s="132" t="s">
+      <c r="O8" s="135"/>
+      <c r="Q8" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="132"/>
-      <c r="S8" s="130"/>
-      <c r="T8" s="131"/>
+      <c r="R8" s="136"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="135"/>
     </row>
     <row r="9" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="136" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="130" t="s">
+      <c r="C9" s="136"/>
+      <c r="D9" s="134" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="131"/>
-      <c r="G9" s="132" t="s">
+      <c r="E9" s="135"/>
+      <c r="G9" s="136" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="132"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131"/>
-      <c r="L9" s="132" t="s">
+      <c r="H9" s="136"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="135"/>
+      <c r="L9" s="136" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="132"/>
-      <c r="N9" s="130" t="s">
+      <c r="M9" s="136"/>
+      <c r="N9" s="134" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="131"/>
-      <c r="Q9" s="132" t="s">
+      <c r="O9" s="135"/>
+      <c r="Q9" s="136" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="132"/>
-      <c r="S9" s="130"/>
-      <c r="T9" s="131"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="134"/>
+      <c r="T9" s="135"/>
     </row>
     <row r="10" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="130">
+      <c r="C10" s="136"/>
+      <c r="D10" s="134">
         <v>43084</v>
       </c>
-      <c r="E10" s="131"/>
+      <c r="E10" s="135"/>
       <c r="G10" s="105" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="105"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="131"/>
-      <c r="L10" s="132" t="s">
+      <c r="I10" s="134"/>
+      <c r="J10" s="135"/>
+      <c r="L10" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="132"/>
-      <c r="N10" s="130">
+      <c r="M10" s="136"/>
+      <c r="N10" s="134">
         <v>43084</v>
       </c>
-      <c r="O10" s="131"/>
+      <c r="O10" s="135"/>
       <c r="Q10" s="105" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="105"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="131"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="135"/>
     </row>
     <row r="11" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="130">
+      <c r="C11" s="136"/>
+      <c r="D11" s="134">
         <v>3935</v>
       </c>
-      <c r="E11" s="131"/>
-      <c r="G11" s="132" t="s">
+      <c r="E11" s="135"/>
+      <c r="G11" s="136" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="132"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="131"/>
-      <c r="L11" s="132" t="s">
+      <c r="H11" s="136"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
+      <c r="L11" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="132"/>
-      <c r="N11" s="130">
+      <c r="M11" s="136"/>
+      <c r="N11" s="134">
         <v>3935</v>
       </c>
-      <c r="O11" s="131"/>
-      <c r="Q11" s="132" t="s">
+      <c r="O11" s="135"/>
+      <c r="Q11" s="136" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="132"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="131"/>
+      <c r="R11" s="136"/>
+      <c r="S11" s="134"/>
+      <c r="T11" s="135"/>
     </row>
     <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="136" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="130">
+      <c r="C12" s="136"/>
+      <c r="D12" s="134">
         <v>3800</v>
       </c>
-      <c r="E12" s="131"/>
-      <c r="G12" s="132" t="s">
+      <c r="E12" s="135"/>
+      <c r="G12" s="136" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="132"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="131"/>
-      <c r="L12" s="132" t="s">
+      <c r="H12" s="136"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="135"/>
+      <c r="L12" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="132"/>
-      <c r="N12" s="130">
+      <c r="M12" s="136"/>
+      <c r="N12" s="134">
         <v>3800</v>
       </c>
-      <c r="O12" s="131"/>
-      <c r="Q12" s="132" t="s">
+      <c r="O12" s="135"/>
+      <c r="Q12" s="136" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="132"/>
-      <c r="S12" s="130"/>
-      <c r="T12" s="131"/>
+      <c r="R12" s="136"/>
+      <c r="S12" s="134"/>
+      <c r="T12" s="135"/>
     </row>
     <row r="13" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="130">
+      <c r="C13" s="136"/>
+      <c r="D13" s="134">
         <v>61</v>
       </c>
-      <c r="E13" s="131"/>
-      <c r="G13" s="132" t="s">
+      <c r="E13" s="135"/>
+      <c r="G13" s="136" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="132"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="131"/>
-      <c r="L13" s="132" t="s">
+      <c r="H13" s="136"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="135"/>
+      <c r="L13" s="136" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="132"/>
-      <c r="N13" s="130">
+      <c r="M13" s="136"/>
+      <c r="N13" s="134">
         <v>3800</v>
       </c>
-      <c r="O13" s="131"/>
-      <c r="Q13" s="132" t="s">
+      <c r="O13" s="135"/>
+      <c r="Q13" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="132"/>
-      <c r="S13" s="130"/>
-      <c r="T13" s="131"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="135"/>
     </row>
     <row r="14" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="136" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="132"/>
-      <c r="D14" s="130" t="s">
+      <c r="C14" s="136"/>
+      <c r="D14" s="134" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="131"/>
-      <c r="G14" s="132" t="s">
+      <c r="E14" s="135"/>
+      <c r="G14" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="132"/>
+      <c r="H14" s="136"/>
       <c r="I14" s="106"/>
       <c r="J14" s="107"/>
-      <c r="L14" s="132" t="s">
+      <c r="L14" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="132"/>
-      <c r="N14" s="130">
+      <c r="M14" s="136"/>
+      <c r="N14" s="134">
         <v>61</v>
       </c>
-      <c r="O14" s="131"/>
-      <c r="Q14" s="132" t="s">
+      <c r="O14" s="135"/>
+      <c r="Q14" s="136" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="132"/>
-      <c r="S14" s="130"/>
-      <c r="T14" s="131"/>
+      <c r="R14" s="136"/>
+      <c r="S14" s="134"/>
+      <c r="T14" s="135"/>
     </row>
     <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="130">
+      <c r="C15" s="136"/>
+      <c r="D15" s="134">
         <v>5000</v>
       </c>
-      <c r="E15" s="131"/>
-      <c r="G15" s="132" t="s">
+      <c r="E15" s="135"/>
+      <c r="G15" s="136" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="132"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="131"/>
-      <c r="L15" s="132" t="s">
+      <c r="H15" s="136"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="135"/>
+      <c r="L15" s="136" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="132"/>
-      <c r="N15" s="130" t="s">
+      <c r="M15" s="136"/>
+      <c r="N15" s="134" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="131"/>
-      <c r="Q15" s="132" t="s">
+      <c r="O15" s="135"/>
+      <c r="Q15" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="132"/>
+      <c r="R15" s="136"/>
       <c r="S15" s="106"/>
       <c r="T15" s="107"/>
     </row>
     <row r="16" spans="2:20" ht="11.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="127" t="s">
+      <c r="B16" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="128" t="s">
+      <c r="C16" s="131"/>
+      <c r="D16" s="132" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="129"/>
-      <c r="G16" s="127" t="s">
+      <c r="E16" s="133"/>
+      <c r="G16" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="129"/>
-      <c r="L16" s="132" t="s">
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="133"/>
+      <c r="L16" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="132"/>
-      <c r="N16" s="130">
+      <c r="M16" s="136"/>
+      <c r="N16" s="134">
         <v>5000</v>
       </c>
-      <c r="O16" s="131"/>
-      <c r="Q16" s="132" t="s">
+      <c r="O16" s="135"/>
+      <c r="Q16" s="136" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="132"/>
-      <c r="S16" s="130"/>
-      <c r="T16" s="131"/>
+      <c r="R16" s="136"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="135"/>
     </row>
     <row r="17" spans="2:25" ht="12" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L17" s="127" t="s">
+      <c r="L17" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="127"/>
-      <c r="N17" s="128" t="s">
+      <c r="M17" s="131"/>
+      <c r="N17" s="132" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="129"/>
-      <c r="Q17" s="127" t="s">
+      <c r="O17" s="133"/>
+      <c r="Q17" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="127"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="129"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="133"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="108" t="s">
@@ -4296,1001 +6209,1132 @@
       <c r="Y21" s="109"/>
     </row>
     <row r="22" spans="2:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="125" t="s">
+      <c r="B22" s="129" t="s">
         <v>223</v>
       </c>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="G22" s="125" t="s">
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="G22" s="129" t="s">
         <v>189</v>
       </c>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="L22" s="135" t="s">
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="L22" s="139" t="s">
         <v>189</v>
       </c>
-      <c r="M22" s="135"/>
-      <c r="N22" s="135"/>
-      <c r="O22" s="135"/>
-      <c r="Q22" s="125" t="s">
+      <c r="M22" s="139"/>
+      <c r="N22" s="139"/>
+      <c r="O22" s="139"/>
+      <c r="Q22" s="129" t="s">
         <v>188</v>
       </c>
-      <c r="R22" s="125"/>
-      <c r="S22" s="125"/>
-      <c r="T22" s="125"/>
-      <c r="V22" s="135" t="s">
+      <c r="R22" s="129"/>
+      <c r="S22" s="129"/>
+      <c r="T22" s="129"/>
+      <c r="V22" s="139" t="s">
         <v>189</v>
       </c>
-      <c r="W22" s="135"/>
-      <c r="X22" s="135"/>
-      <c r="Y22" s="135"/>
+      <c r="W22" s="139"/>
+      <c r="X22" s="139"/>
+      <c r="Y22" s="139"/>
     </row>
     <row r="23" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="124">
+      <c r="C23" s="122"/>
+      <c r="D23" s="128">
         <v>43209</v>
       </c>
-      <c r="E23" s="126"/>
-      <c r="G23" s="118" t="s">
+      <c r="E23" s="130"/>
+      <c r="G23" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="118"/>
-      <c r="I23" s="124">
+      <c r="H23" s="122"/>
+      <c r="I23" s="128">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
-      </c>
-      <c r="J23" s="126"/>
-      <c r="L23" s="118" t="s">
+        <v>43229</v>
+      </c>
+      <c r="J23" s="130"/>
+      <c r="L23" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="M23" s="118"/>
-      <c r="N23" s="124">
+      <c r="M23" s="122"/>
+      <c r="N23" s="128">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
-      </c>
-      <c r="O23" s="126"/>
-      <c r="Q23" s="118" t="s">
+        <v>43229</v>
+      </c>
+      <c r="O23" s="130"/>
+      <c r="Q23" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="R23" s="118"/>
-      <c r="S23" s="124">
+      <c r="R23" s="122"/>
+      <c r="S23" s="128">
         <f ca="1">TODAY()-1</f>
-        <v>43226</v>
-      </c>
-      <c r="T23" s="126"/>
-      <c r="V23" s="118" t="s">
+        <v>43228</v>
+      </c>
+      <c r="T23" s="130"/>
+      <c r="V23" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="W23" s="118"/>
-      <c r="X23" s="124">
+      <c r="W23" s="122"/>
+      <c r="X23" s="128">
         <f ca="1">TODAY()-1</f>
-        <v>43226</v>
-      </c>
-      <c r="Y23" s="126"/>
+        <v>43228</v>
+      </c>
+      <c r="Y23" s="130"/>
     </row>
     <row r="24" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B24" s="118" t="s">
+      <c r="B24" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="118"/>
-      <c r="D24" s="119" t="s">
+      <c r="C24" s="122"/>
+      <c r="D24" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="120"/>
-      <c r="G24" s="118" t="s">
+      <c r="E24" s="124"/>
+      <c r="G24" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119" t="s">
+      <c r="H24" s="122"/>
+      <c r="I24" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="J24" s="120"/>
-      <c r="L24" s="118" t="s">
+      <c r="J24" s="124"/>
+      <c r="L24" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="M24" s="118"/>
-      <c r="N24" s="119" t="s">
+      <c r="M24" s="122"/>
+      <c r="N24" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="120"/>
-      <c r="Q24" s="118" t="s">
+      <c r="O24" s="124"/>
+      <c r="Q24" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="R24" s="118"/>
-      <c r="S24" s="119" t="s">
+      <c r="R24" s="122"/>
+      <c r="S24" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="T24" s="120"/>
-      <c r="V24" s="118" t="s">
+      <c r="T24" s="124"/>
+      <c r="V24" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="W24" s="118"/>
-      <c r="X24" s="119" t="s">
+      <c r="W24" s="122"/>
+      <c r="X24" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="Y24" s="120"/>
+      <c r="Y24" s="124"/>
     </row>
     <row r="25" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="118"/>
-      <c r="D25" s="119" t="s">
+      <c r="C25" s="122"/>
+      <c r="D25" s="123" t="s">
         <v>224</v>
       </c>
-      <c r="E25" s="120"/>
-      <c r="G25" s="118" t="s">
+      <c r="E25" s="124"/>
+      <c r="G25" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="118"/>
-      <c r="I25" s="119" t="s">
+      <c r="H25" s="122"/>
+      <c r="I25" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="120"/>
-      <c r="L25" s="118" t="s">
+      <c r="J25" s="124"/>
+      <c r="L25" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="M25" s="118"/>
-      <c r="N25" s="119" t="s">
+      <c r="M25" s="122"/>
+      <c r="N25" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="O25" s="120"/>
-      <c r="Q25" s="118" t="s">
+      <c r="O25" s="124"/>
+      <c r="Q25" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="R25" s="118"/>
-      <c r="S25" s="119" t="s">
+      <c r="R25" s="122"/>
+      <c r="S25" s="123" t="s">
         <v>187</v>
       </c>
-      <c r="T25" s="120"/>
-      <c r="V25" s="118" t="s">
+      <c r="T25" s="124"/>
+      <c r="V25" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="W25" s="118"/>
-      <c r="X25" s="119" t="s">
+      <c r="W25" s="122"/>
+      <c r="X25" s="123" t="s">
         <v>187</v>
       </c>
-      <c r="Y25" s="120"/>
+      <c r="Y25" s="124"/>
     </row>
     <row r="26" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B26" s="118" t="s">
+      <c r="B26" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="118"/>
-      <c r="D26" s="119">
+      <c r="C26" s="122"/>
+      <c r="D26" s="123">
         <f>D31*D33</f>
         <v>290000</v>
       </c>
-      <c r="E26" s="120"/>
-      <c r="G26" s="118" t="s">
+      <c r="E26" s="124"/>
+      <c r="G26" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="118"/>
-      <c r="I26" s="119">
+      <c r="H26" s="122"/>
+      <c r="I26" s="123">
         <f>I31*I33</f>
         <v>271800</v>
       </c>
-      <c r="J26" s="120"/>
-      <c r="L26" s="118" t="s">
+      <c r="J26" s="124"/>
+      <c r="L26" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="M26" s="118"/>
-      <c r="N26" s="119">
+      <c r="M26" s="122"/>
+      <c r="N26" s="123">
         <f>N31*N33</f>
         <v>275000</v>
       </c>
-      <c r="O26" s="120"/>
-      <c r="Q26" s="118" t="s">
+      <c r="O26" s="124"/>
+      <c r="Q26" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="R26" s="118"/>
-      <c r="S26" s="119">
+      <c r="R26" s="122"/>
+      <c r="S26" s="123">
         <f>S31*S33</f>
         <v>235799.99999999997</v>
       </c>
-      <c r="T26" s="120"/>
-      <c r="V26" s="118" t="s">
+      <c r="T26" s="124"/>
+      <c r="V26" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="W26" s="118"/>
-      <c r="X26" s="119">
+      <c r="W26" s="122"/>
+      <c r="X26" s="123">
         <f>X31*X33</f>
         <v>235799.99999999997</v>
       </c>
-      <c r="Y26" s="120"/>
+      <c r="Y26" s="124"/>
     </row>
     <row r="27" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B27" s="118" t="s">
+      <c r="B27" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="118"/>
-      <c r="D27" s="119" t="s">
+      <c r="C27" s="122"/>
+      <c r="D27" s="123" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="120"/>
+      <c r="E27" s="124"/>
       <c r="F27" s="100">
         <f>1160*250</f>
         <v>290000</v>
       </c>
-      <c r="G27" s="118" t="s">
+      <c r="G27" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="118"/>
-      <c r="I27" s="119" t="s">
+      <c r="H27" s="122"/>
+      <c r="I27" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="J27" s="120"/>
-      <c r="L27" s="118" t="s">
+      <c r="J27" s="124"/>
+      <c r="L27" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="M27" s="118"/>
-      <c r="N27" s="119" t="s">
+      <c r="M27" s="122"/>
+      <c r="N27" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="O27" s="120"/>
-      <c r="Q27" s="118" t="s">
+      <c r="O27" s="124"/>
+      <c r="Q27" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="R27" s="118"/>
-      <c r="S27" s="119" t="s">
+      <c r="R27" s="122"/>
+      <c r="S27" s="123" t="s">
         <v>191</v>
       </c>
-      <c r="T27" s="120"/>
-      <c r="V27" s="118" t="s">
+      <c r="T27" s="124"/>
+      <c r="V27" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="W27" s="118"/>
-      <c r="X27" s="119" t="s">
+      <c r="W27" s="122"/>
+      <c r="X27" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="Y27" s="120"/>
+      <c r="Y27" s="124"/>
     </row>
     <row r="28" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="124">
+      <c r="C28" s="122"/>
+      <c r="D28" s="128">
         <v>43222</v>
       </c>
-      <c r="E28" s="120"/>
-      <c r="G28" s="118" t="s">
+      <c r="E28" s="124"/>
+      <c r="G28" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="118"/>
-      <c r="I28" s="124">
+      <c r="H28" s="122"/>
+      <c r="I28" s="128">
         <v>43182</v>
       </c>
-      <c r="J28" s="120"/>
-      <c r="L28" s="118" t="s">
+      <c r="J28" s="124"/>
+      <c r="L28" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="M28" s="118"/>
-      <c r="N28" s="124">
+      <c r="M28" s="122"/>
+      <c r="N28" s="128">
         <v>43219</v>
       </c>
-      <c r="O28" s="120"/>
-      <c r="Q28" s="118" t="s">
+      <c r="O28" s="124"/>
+      <c r="Q28" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="R28" s="118"/>
-      <c r="S28" s="124">
+      <c r="R28" s="122"/>
+      <c r="S28" s="128">
         <v>43201</v>
       </c>
-      <c r="T28" s="120"/>
-      <c r="V28" s="118" t="s">
+      <c r="T28" s="124"/>
+      <c r="V28" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="W28" s="118"/>
-      <c r="X28" s="124">
+      <c r="W28" s="122"/>
+      <c r="X28" s="128">
         <v>43201</v>
       </c>
-      <c r="Y28" s="120"/>
+      <c r="Y28" s="124"/>
     </row>
     <row r="29" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B29" s="118" t="s">
+      <c r="B29" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="118"/>
-      <c r="D29" s="119">
+      <c r="C29" s="122"/>
+      <c r="D29" s="123">
         <v>108500</v>
       </c>
-      <c r="E29" s="120"/>
-      <c r="G29" s="118" t="s">
+      <c r="E29" s="124"/>
+      <c r="G29" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="118"/>
-      <c r="I29" s="119">
+      <c r="H29" s="122"/>
+      <c r="I29" s="123">
         <v>3856</v>
       </c>
-      <c r="J29" s="120"/>
-      <c r="L29" s="118" t="s">
+      <c r="J29" s="124"/>
+      <c r="L29" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="M29" s="118"/>
-      <c r="N29" s="119">
+      <c r="M29" s="122"/>
+      <c r="N29" s="123">
         <v>3760</v>
       </c>
-      <c r="O29" s="120"/>
-      <c r="Q29" s="118" t="s">
+      <c r="O29" s="124"/>
+      <c r="Q29" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="R29" s="118"/>
-      <c r="S29" s="119">
+      <c r="R29" s="122"/>
+      <c r="S29" s="123">
         <v>524</v>
       </c>
-      <c r="T29" s="120"/>
-      <c r="V29" s="118" t="s">
+      <c r="T29" s="124"/>
+      <c r="V29" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="W29" s="118"/>
-      <c r="X29" s="119">
+      <c r="W29" s="122"/>
+      <c r="X29" s="123">
         <v>524</v>
       </c>
-      <c r="Y29" s="120"/>
+      <c r="Y29" s="124"/>
     </row>
     <row r="30" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B30" s="118" t="s">
+      <c r="B30" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="118"/>
-      <c r="D30" s="119">
+      <c r="C30" s="122"/>
+      <c r="D30" s="123">
         <v>110000</v>
       </c>
-      <c r="E30" s="120"/>
-      <c r="G30" s="118" t="s">
+      <c r="E30" s="124"/>
+      <c r="G30" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="118"/>
-      <c r="I30" s="119">
+      <c r="H30" s="122"/>
+      <c r="I30" s="123">
         <v>3930</v>
       </c>
-      <c r="J30" s="120"/>
-      <c r="L30" s="118" t="s">
+      <c r="J30" s="124"/>
+      <c r="L30" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="M30" s="118"/>
-      <c r="N30" s="119">
+      <c r="M30" s="122"/>
+      <c r="N30" s="123">
         <v>3700</v>
       </c>
-      <c r="O30" s="120"/>
-      <c r="Q30" s="118" t="s">
+      <c r="O30" s="124"/>
+      <c r="Q30" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="R30" s="118"/>
-      <c r="S30" s="119">
+      <c r="R30" s="122"/>
+      <c r="S30" s="123">
         <v>524</v>
       </c>
-      <c r="T30" s="120"/>
-      <c r="V30" s="118" t="s">
+      <c r="T30" s="124"/>
+      <c r="V30" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="W30" s="118"/>
-      <c r="X30" s="119">
+      <c r="W30" s="122"/>
+      <c r="X30" s="123">
         <v>524</v>
       </c>
-      <c r="Y30" s="120"/>
+      <c r="Y30" s="124"/>
     </row>
     <row r="31" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B31" s="118" t="s">
+      <c r="B31" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="118"/>
-      <c r="D31" s="119">
+      <c r="C31" s="122"/>
+      <c r="D31" s="123">
         <v>1160</v>
       </c>
-      <c r="E31" s="120"/>
-      <c r="G31" s="118" t="s">
+      <c r="E31" s="124"/>
+      <c r="G31" s="122" t="s">
         <v>198</v>
       </c>
-      <c r="H31" s="118"/>
-      <c r="I31" s="119">
+      <c r="H31" s="122"/>
+      <c r="I31" s="123">
         <v>27.18</v>
       </c>
-      <c r="J31" s="120"/>
-      <c r="L31" s="118" t="s">
+      <c r="J31" s="124"/>
+      <c r="L31" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="M31" s="118"/>
-      <c r="N31" s="119">
+      <c r="M31" s="122"/>
+      <c r="N31" s="123">
         <v>55</v>
       </c>
-      <c r="O31" s="120"/>
-      <c r="Q31" s="118" t="s">
+      <c r="O31" s="124"/>
+      <c r="Q31" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="118"/>
-      <c r="S31" s="119">
+      <c r="R31" s="122"/>
+      <c r="S31" s="123">
         <v>23.58</v>
       </c>
-      <c r="T31" s="120"/>
-      <c r="V31" s="118" t="s">
+      <c r="T31" s="124"/>
+      <c r="V31" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="W31" s="118"/>
-      <c r="X31" s="119">
+      <c r="W31" s="122"/>
+      <c r="X31" s="123">
         <v>23.58</v>
       </c>
-      <c r="Y31" s="120"/>
+      <c r="Y31" s="124"/>
     </row>
     <row r="32" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B32" s="118" t="s">
+      <c r="B32" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="119" t="s">
+      <c r="C32" s="122"/>
+      <c r="D32" s="123" t="s">
         <v>209</v>
       </c>
-      <c r="E32" s="120"/>
-      <c r="G32" s="118" t="s">
+      <c r="E32" s="124"/>
+      <c r="G32" s="122" t="s">
         <v>199</v>
       </c>
-      <c r="H32" s="118"/>
-      <c r="I32" s="119" t="s">
+      <c r="H32" s="122"/>
+      <c r="I32" s="123" t="s">
         <v>196</v>
       </c>
-      <c r="J32" s="120"/>
-      <c r="L32" s="118" t="s">
+      <c r="J32" s="124"/>
+      <c r="L32" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="M32" s="118"/>
-      <c r="N32" s="119" t="s">
+      <c r="M32" s="122"/>
+      <c r="N32" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="O32" s="120"/>
-      <c r="Q32" s="118" t="s">
+      <c r="O32" s="124"/>
+      <c r="Q32" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="R32" s="118"/>
-      <c r="S32" s="119" t="s">
+      <c r="R32" s="122"/>
+      <c r="S32" s="123" t="s">
         <v>192</v>
       </c>
-      <c r="T32" s="120"/>
-      <c r="V32" s="118" t="s">
+      <c r="T32" s="124"/>
+      <c r="V32" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="W32" s="118"/>
-      <c r="X32" s="119" t="s">
+      <c r="W32" s="122"/>
+      <c r="X32" s="123" t="s">
         <v>192</v>
       </c>
-      <c r="Y32" s="120"/>
+      <c r="Y32" s="124"/>
     </row>
     <row r="33" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="119">
+      <c r="C33" s="122"/>
+      <c r="D33" s="123">
         <v>250</v>
       </c>
-      <c r="E33" s="120"/>
-      <c r="G33" s="118" t="s">
+      <c r="E33" s="124"/>
+      <c r="G33" s="122" t="s">
         <v>200</v>
       </c>
-      <c r="H33" s="118"/>
-      <c r="I33" s="119">
+      <c r="H33" s="122"/>
+      <c r="I33" s="123">
         <v>10000</v>
       </c>
-      <c r="J33" s="120"/>
-      <c r="L33" s="118" t="s">
+      <c r="J33" s="124"/>
+      <c r="L33" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="M33" s="118"/>
-      <c r="N33" s="119">
+      <c r="M33" s="122"/>
+      <c r="N33" s="123">
         <v>5000</v>
       </c>
-      <c r="O33" s="120"/>
-      <c r="Q33" s="118" t="s">
+      <c r="O33" s="124"/>
+      <c r="Q33" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="R33" s="118"/>
-      <c r="S33" s="119">
+      <c r="R33" s="122"/>
+      <c r="S33" s="123">
         <v>10000</v>
       </c>
-      <c r="T33" s="120"/>
-      <c r="V33" s="118" t="s">
+      <c r="T33" s="124"/>
+      <c r="V33" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="W33" s="118"/>
-      <c r="X33" s="119">
+      <c r="W33" s="122"/>
+      <c r="X33" s="123">
         <v>10000</v>
       </c>
-      <c r="Y33" s="120"/>
+      <c r="Y33" s="124"/>
     </row>
     <row r="34" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="121" t="s">
+      <c r="B34" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="121"/>
-      <c r="D34" s="122" t="s">
+      <c r="C34" s="125"/>
+      <c r="D34" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="123"/>
-      <c r="G34" s="121" t="s">
+      <c r="E34" s="127"/>
+      <c r="G34" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="H34" s="121"/>
-      <c r="I34" s="122" t="s">
+      <c r="H34" s="125"/>
+      <c r="I34" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="J34" s="123"/>
-      <c r="L34" s="121" t="s">
+      <c r="J34" s="127"/>
+      <c r="L34" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="M34" s="121"/>
-      <c r="N34" s="122" t="s">
+      <c r="M34" s="125"/>
+      <c r="N34" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="O34" s="123"/>
-      <c r="Q34" s="121" t="s">
+      <c r="O34" s="127"/>
+      <c r="Q34" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="R34" s="121"/>
-      <c r="S34" s="122" t="s">
+      <c r="R34" s="125"/>
+      <c r="S34" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="T34" s="123"/>
-      <c r="V34" s="121" t="s">
+      <c r="T34" s="127"/>
+      <c r="V34" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="W34" s="121"/>
-      <c r="X34" s="122" t="s">
+      <c r="W34" s="125"/>
+      <c r="X34" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="Y34" s="123"/>
+      <c r="Y34" s="127"/>
     </row>
     <row r="35" spans="2:25" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="125" t="s">
+      <c r="B36" s="129" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
+      <c r="G36" s="129" t="s">
+        <v>246</v>
+      </c>
+      <c r="H36" s="129"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="129"/>
+      <c r="L36" s="129" t="s">
+        <v>206</v>
+      </c>
+      <c r="M36" s="129"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="129"/>
+      <c r="Q36" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="G36" s="125" t="s">
-        <v>121</v>
-      </c>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="125"/>
-      <c r="L36" s="125" t="s">
-        <v>206</v>
-      </c>
-      <c r="M36" s="125"/>
-      <c r="N36" s="125"/>
-      <c r="O36" s="125"/>
-      <c r="Q36" s="125" t="s">
-        <v>121</v>
-      </c>
-      <c r="R36" s="125"/>
-      <c r="S36" s="125"/>
-      <c r="T36" s="125"/>
+      <c r="R36" s="129"/>
+      <c r="S36" s="129"/>
+      <c r="T36" s="129"/>
     </row>
     <row r="37" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="124">
-        <v>43217</v>
-      </c>
-      <c r="E37" s="126"/>
-      <c r="G37" s="118" t="s">
+      <c r="C37" s="122"/>
+      <c r="D37" s="128">
+        <v>43229</v>
+      </c>
+      <c r="E37" s="130"/>
+      <c r="G37" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="H37" s="118"/>
-      <c r="I37" s="124">
-        <v>43222</v>
-      </c>
-      <c r="J37" s="126"/>
-      <c r="L37" s="118" t="s">
+      <c r="H37" s="122"/>
+      <c r="I37" s="128">
+        <v>43229</v>
+      </c>
+      <c r="J37" s="130"/>
+      <c r="L37" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="M37" s="118"/>
-      <c r="N37" s="124">
+      <c r="M37" s="122"/>
+      <c r="N37" s="128">
         <v>43214</v>
       </c>
-      <c r="O37" s="126"/>
-      <c r="Q37" s="118" t="s">
+      <c r="O37" s="130"/>
+      <c r="Q37" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="R37" s="118"/>
-      <c r="S37" s="124">
+      <c r="R37" s="122"/>
+      <c r="S37" s="128">
         <v>43209</v>
       </c>
-      <c r="T37" s="126"/>
+      <c r="T37" s="130"/>
     </row>
     <row r="38" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B38" s="118" t="s">
+      <c r="B38" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="118"/>
-      <c r="D38" s="119" t="s">
+      <c r="C38" s="122"/>
+      <c r="D38" s="123" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" s="124"/>
+      <c r="G38" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="122"/>
+      <c r="I38" s="123" t="s">
+        <v>187</v>
+      </c>
+      <c r="J38" s="124"/>
+      <c r="L38" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="M38" s="122"/>
+      <c r="N38" s="123" t="s">
+        <v>204</v>
+      </c>
+      <c r="O38" s="124"/>
+      <c r="Q38" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="R38" s="122"/>
+      <c r="S38" s="123" t="s">
+        <v>218</v>
+      </c>
+      <c r="T38" s="124"/>
+    </row>
+    <row r="39" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B39" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="122"/>
+      <c r="D39" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="E38" s="120"/>
-      <c r="G38" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="H38" s="118"/>
-      <c r="I38" s="119" t="s">
-        <v>235</v>
-      </c>
-      <c r="J38" s="120"/>
-      <c r="L38" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="M38" s="118"/>
-      <c r="N38" s="119" t="s">
+      <c r="E39" s="124"/>
+      <c r="G39" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" s="122"/>
+      <c r="I39" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="O38" s="120"/>
-      <c r="Q38" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="R38" s="118"/>
-      <c r="S38" s="119" t="s">
-        <v>218</v>
-      </c>
-      <c r="T38" s="120"/>
-    </row>
-    <row r="39" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B39" s="118" t="s">
+      <c r="J39" s="124"/>
+      <c r="L39" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="119" t="s">
-        <v>229</v>
-      </c>
-      <c r="E39" s="120"/>
-      <c r="G39" s="118" t="s">
+      <c r="M39" s="122"/>
+      <c r="N39" s="123" t="s">
+        <v>4</v>
+      </c>
+      <c r="O39" s="124"/>
+      <c r="Q39" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="H39" s="118"/>
-      <c r="I39" s="119" t="s">
+      <c r="R39" s="122"/>
+      <c r="S39" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="J39" s="120"/>
-      <c r="L39" s="118" t="s">
-        <v>127</v>
-      </c>
-      <c r="M39" s="118"/>
-      <c r="N39" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="O39" s="120"/>
-      <c r="Q39" s="118" t="s">
-        <v>127</v>
-      </c>
-      <c r="R39" s="118"/>
-      <c r="S39" s="119" t="s">
-        <v>204</v>
-      </c>
-      <c r="T39" s="120"/>
+      <c r="T39" s="124"/>
     </row>
     <row r="40" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B40" s="118" t="s">
+      <c r="B40" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="118"/>
-      <c r="D40" s="119">
+      <c r="C40" s="122"/>
+      <c r="D40" s="123">
         <f>D47*D45</f>
-        <v>16992</v>
-      </c>
-      <c r="E40" s="120"/>
-      <c r="G40" s="118" t="s">
+        <v>410500.00000000006</v>
+      </c>
+      <c r="E40" s="124"/>
+      <c r="G40" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="H40" s="118"/>
-      <c r="I40" s="119">
+      <c r="H40" s="122"/>
+      <c r="I40" s="123">
         <f>I45*I47</f>
-        <v>400000</v>
-      </c>
-      <c r="J40" s="120"/>
-      <c r="L40" s="118" t="s">
+        <v>410500.00000000006</v>
+      </c>
+      <c r="J40" s="124"/>
+      <c r="L40" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="M40" s="118"/>
-      <c r="N40" s="119">
+      <c r="M40" s="122"/>
+      <c r="N40" s="123">
         <f>N45*N47</f>
         <v>2117500</v>
       </c>
-      <c r="O40" s="120"/>
-      <c r="Q40" s="118" t="s">
+      <c r="O40" s="124"/>
+      <c r="Q40" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="R40" s="118"/>
-      <c r="S40" s="119">
+      <c r="R40" s="122"/>
+      <c r="S40" s="123">
         <f>S45*S47</f>
         <v>1045200</v>
       </c>
-      <c r="T40" s="120"/>
+      <c r="T40" s="124"/>
     </row>
     <row r="41" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B41" s="118" t="s">
+      <c r="B41" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="119" t="s">
-        <v>230</v>
-      </c>
-      <c r="E41" s="120"/>
-      <c r="G41" s="118" t="s">
+      <c r="C41" s="122"/>
+      <c r="D41" s="123" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" s="124"/>
+      <c r="G41" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="H41" s="118"/>
-      <c r="I41" s="119" t="s">
+      <c r="H41" s="122"/>
+      <c r="I41" s="123" t="s">
         <v>219</v>
       </c>
-      <c r="J41" s="120"/>
-      <c r="L41" s="118" t="s">
+      <c r="J41" s="124"/>
+      <c r="L41" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="M41" s="118"/>
-      <c r="N41" s="119" t="s">
+      <c r="M41" s="122"/>
+      <c r="N41" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="O41" s="120"/>
-      <c r="Q41" s="118" t="s">
+      <c r="O41" s="124"/>
+      <c r="Q41" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="R41" s="118"/>
-      <c r="S41" s="119" t="s">
+      <c r="R41" s="122"/>
+      <c r="S41" s="123" t="s">
         <v>219</v>
       </c>
-      <c r="T41" s="120"/>
+      <c r="T41" s="124"/>
     </row>
     <row r="42" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B42" s="118" t="s">
+      <c r="B42" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="118"/>
-      <c r="D42" s="124">
-        <f>D37+28</f>
-        <v>43245</v>
-      </c>
-      <c r="E42" s="120"/>
-      <c r="G42" s="118" t="s">
+      <c r="C42" s="122"/>
+      <c r="D42" s="128">
+        <f>D37+98</f>
+        <v>43327</v>
+      </c>
+      <c r="E42" s="124"/>
+      <c r="G42" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="H42" s="118"/>
-      <c r="I42" s="124">
-        <v>43222</v>
-      </c>
-      <c r="J42" s="120"/>
-      <c r="L42" s="118" t="s">
+      <c r="H42" s="122"/>
+      <c r="I42" s="128">
+        <f>I37+98</f>
+        <v>43327</v>
+      </c>
+      <c r="J42" s="124"/>
+      <c r="L42" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="M42" s="118"/>
-      <c r="N42" s="124">
+      <c r="M42" s="122"/>
+      <c r="N42" s="128">
         <v>43266</v>
       </c>
-      <c r="O42" s="120"/>
-      <c r="Q42" s="118" t="s">
+      <c r="O42" s="124"/>
+      <c r="Q42" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="R42" s="118"/>
-      <c r="S42" s="124">
+      <c r="R42" s="122"/>
+      <c r="S42" s="128">
         <v>43266</v>
       </c>
-      <c r="T42" s="120"/>
+      <c r="T42" s="124"/>
     </row>
     <row r="43" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B43" s="118" t="s">
+      <c r="B43" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="118"/>
-      <c r="D43" s="119">
-        <v>3654</v>
-      </c>
-      <c r="E43" s="120"/>
-      <c r="G43" s="118" t="s">
+      <c r="C43" s="122"/>
+      <c r="D43" s="123">
+        <v>470.5</v>
+      </c>
+      <c r="E43" s="124"/>
+      <c r="G43" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="H43" s="118"/>
-      <c r="I43" s="119">
-        <v>14545</v>
-      </c>
-      <c r="J43" s="120"/>
-      <c r="L43" s="118" t="s">
+      <c r="H43" s="122"/>
+      <c r="I43" s="123">
+        <v>470.5</v>
+      </c>
+      <c r="J43" s="124"/>
+      <c r="L43" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="M43" s="139"/>
-      <c r="N43" s="119">
+      <c r="M43" s="143"/>
+      <c r="N43" s="123">
         <v>14535</v>
       </c>
-      <c r="O43" s="120"/>
-      <c r="Q43" s="118" t="s">
+      <c r="O43" s="124"/>
+      <c r="Q43" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="R43" s="118"/>
-      <c r="S43" s="119">
+      <c r="R43" s="122"/>
+      <c r="S43" s="123">
         <v>15250</v>
       </c>
-      <c r="T43" s="120"/>
+      <c r="T43" s="124"/>
     </row>
     <row r="44" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B44" s="118" t="s">
+      <c r="B44" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="118"/>
-      <c r="D44" s="119">
-        <v>3654</v>
-      </c>
-      <c r="E44" s="120"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="123">
+        <v>470.5</v>
+      </c>
+      <c r="E44" s="124"/>
       <c r="F44" s="100">
         <f>D44*1.55/100</f>
-        <v>56.637</v>
-      </c>
-      <c r="G44" s="118" t="s">
+        <v>7.2927499999999998</v>
+      </c>
+      <c r="G44" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="H44" s="118"/>
-      <c r="I44" s="119">
-        <v>14000</v>
-      </c>
-      <c r="J44" s="120"/>
-      <c r="L44" s="118" t="s">
+      <c r="H44" s="122"/>
+      <c r="I44" s="123">
+        <v>470.5</v>
+      </c>
+      <c r="J44" s="124"/>
+      <c r="L44" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="M44" s="118"/>
-      <c r="N44" s="119">
+      <c r="M44" s="122"/>
+      <c r="N44" s="123">
         <v>14500</v>
       </c>
-      <c r="O44" s="120"/>
-      <c r="Q44" s="118" t="s">
+      <c r="O44" s="124"/>
+      <c r="Q44" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="R44" s="118"/>
-      <c r="S44" s="119">
+      <c r="R44" s="122"/>
+      <c r="S44" s="123">
         <v>14500</v>
       </c>
-      <c r="T44" s="120"/>
+      <c r="T44" s="124"/>
     </row>
     <row r="45" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B45" s="118" t="s">
-        <v>233</v>
-      </c>
-      <c r="C45" s="118"/>
-      <c r="D45" s="119">
-        <v>56.64</v>
-      </c>
-      <c r="E45" s="120"/>
-      <c r="G45" s="118" t="s">
+      <c r="B45" s="122" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="122"/>
+      <c r="D45" s="123">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="E45" s="124"/>
+      <c r="G45" s="122" t="s">
+        <v>140</v>
+      </c>
+      <c r="H45" s="122"/>
+      <c r="I45" s="123">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="J45" s="124"/>
+      <c r="L45" s="122" t="s">
+        <v>140</v>
+      </c>
+      <c r="M45" s="122"/>
+      <c r="N45" s="123">
+        <v>423.5</v>
+      </c>
+      <c r="O45" s="124"/>
+      <c r="Q45" s="122" t="s">
         <v>198</v>
       </c>
-      <c r="H45" s="118"/>
-      <c r="I45" s="119">
-        <v>200</v>
-      </c>
-      <c r="J45" s="120"/>
-      <c r="L45" s="118" t="s">
+      <c r="R45" s="122"/>
+      <c r="S45" s="123">
+        <v>209.04</v>
+      </c>
+      <c r="T45" s="124"/>
+    </row>
+    <row r="46" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B46" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="122"/>
+      <c r="D46" s="123" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" s="124"/>
+      <c r="G46" s="122" t="s">
+        <v>142</v>
+      </c>
+      <c r="H46" s="122"/>
+      <c r="I46" s="123" t="s">
+        <v>202</v>
+      </c>
+      <c r="J46" s="124"/>
+      <c r="L46" s="122" t="s">
+        <v>142</v>
+      </c>
+      <c r="M46" s="122"/>
+      <c r="N46" s="123" t="s">
+        <v>210</v>
+      </c>
+      <c r="O46" s="124"/>
+      <c r="Q46" s="122" t="s">
+        <v>142</v>
+      </c>
+      <c r="R46" s="122"/>
+      <c r="S46" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="T46" s="124"/>
+    </row>
+    <row r="47" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B47" s="122" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="122"/>
+      <c r="D47" s="123">
+        <v>12500</v>
+      </c>
+      <c r="E47" s="124"/>
+      <c r="G47" s="122" t="s">
+        <v>145</v>
+      </c>
+      <c r="H47" s="122"/>
+      <c r="I47" s="123">
+        <v>12500</v>
+      </c>
+      <c r="J47" s="124"/>
+      <c r="L47" s="122" t="s">
+        <v>145</v>
+      </c>
+      <c r="M47" s="122"/>
+      <c r="N47" s="123">
+        <v>5000</v>
+      </c>
+      <c r="O47" s="124"/>
+      <c r="Q47" s="122" t="s">
+        <v>145</v>
+      </c>
+      <c r="R47" s="122"/>
+      <c r="S47" s="123">
+        <v>5000</v>
+      </c>
+      <c r="T47" s="124"/>
+    </row>
+    <row r="48" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="125" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="125"/>
+      <c r="D48" s="126" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" s="127"/>
+      <c r="G48" s="125" t="s">
+        <v>147</v>
+      </c>
+      <c r="H48" s="125"/>
+      <c r="I48" s="126" t="s">
+        <v>207</v>
+      </c>
+      <c r="J48" s="127"/>
+      <c r="L48" s="125" t="s">
+        <v>147</v>
+      </c>
+      <c r="M48" s="125"/>
+      <c r="N48" s="126" t="s">
+        <v>205</v>
+      </c>
+      <c r="O48" s="127"/>
+      <c r="Q48" s="125" t="s">
+        <v>147</v>
+      </c>
+      <c r="R48" s="125"/>
+      <c r="S48" s="126" t="s">
+        <v>207</v>
+      </c>
+      <c r="T48" s="127"/>
+    </row>
+    <row r="49" spans="2:5" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="129" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+    </row>
+    <row r="50" spans="2:5" ht="12" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="122"/>
+      <c r="D50" s="128">
+        <v>43229</v>
+      </c>
+      <c r="E50" s="130"/>
+    </row>
+    <row r="51" spans="2:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B51" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="122"/>
+      <c r="D51" s="123" t="s">
+        <v>187</v>
+      </c>
+      <c r="E51" s="124"/>
+    </row>
+    <row r="52" spans="2:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B52" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="122"/>
+      <c r="D52" s="123" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" s="124"/>
+    </row>
+    <row r="53" spans="2:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B53" s="122" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="122"/>
+      <c r="D53" s="123">
+        <f>D58*D60</f>
+        <v>410500.00000000006</v>
+      </c>
+      <c r="E53" s="124"/>
+    </row>
+    <row r="54" spans="2:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B54" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="122"/>
+      <c r="D54" s="123" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" s="124"/>
+    </row>
+    <row r="55" spans="2:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B55" s="122" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="122"/>
+      <c r="D55" s="128">
+        <f>D50+98</f>
+        <v>43327</v>
+      </c>
+      <c r="E55" s="124"/>
+    </row>
+    <row r="56" spans="2:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B56" s="122" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="122"/>
+      <c r="D56" s="123">
+        <v>470.5</v>
+      </c>
+      <c r="E56" s="124"/>
+    </row>
+    <row r="57" spans="2:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B57" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="122"/>
+      <c r="D57" s="123">
+        <v>470.5</v>
+      </c>
+      <c r="E57" s="124"/>
+    </row>
+    <row r="58" spans="2:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B58" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="M45" s="118"/>
-      <c r="N45" s="119">
-        <v>423.5</v>
-      </c>
-      <c r="O45" s="120"/>
-      <c r="Q45" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="R45" s="118"/>
-      <c r="S45" s="119">
-        <v>209.04</v>
-      </c>
-      <c r="T45" s="120"/>
-    </row>
-    <row r="46" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B46" s="118" t="s">
-        <v>199</v>
-      </c>
-      <c r="C46" s="118"/>
-      <c r="D46" s="119" t="s">
-        <v>234</v>
-      </c>
-      <c r="E46" s="120"/>
-      <c r="G46" s="118" t="s">
+      <c r="C58" s="122"/>
+      <c r="D58" s="123">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="E58" s="124"/>
+    </row>
+    <row r="59" spans="2:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B59" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="H46" s="118"/>
-      <c r="I46" s="119" t="s">
-        <v>203</v>
-      </c>
-      <c r="J46" s="120"/>
-      <c r="L46" s="118" t="s">
-        <v>142</v>
-      </c>
-      <c r="M46" s="118"/>
-      <c r="N46" s="119" t="s">
-        <v>210</v>
-      </c>
-      <c r="O46" s="120"/>
-      <c r="Q46" s="118" t="s">
-        <v>142</v>
-      </c>
-      <c r="R46" s="118"/>
-      <c r="S46" s="119" t="s">
-        <v>222</v>
-      </c>
-      <c r="T46" s="120"/>
-    </row>
-    <row r="47" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B47" s="118" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="118"/>
-      <c r="D47" s="119">
-        <v>300</v>
-      </c>
-      <c r="E47" s="120"/>
-      <c r="G47" s="118" t="s">
+      <c r="C59" s="122"/>
+      <c r="D59" s="123" t="s">
+        <v>202</v>
+      </c>
+      <c r="E59" s="124"/>
+    </row>
+    <row r="60" spans="2:5" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="B60" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="H47" s="118"/>
-      <c r="I47" s="119">
-        <v>2000</v>
-      </c>
-      <c r="J47" s="120"/>
-      <c r="L47" s="118" t="s">
-        <v>145</v>
-      </c>
-      <c r="M47" s="118"/>
-      <c r="N47" s="119">
-        <v>5000</v>
-      </c>
-      <c r="O47" s="120"/>
-      <c r="Q47" s="118" t="s">
-        <v>145</v>
-      </c>
-      <c r="R47" s="118"/>
-      <c r="S47" s="119">
-        <v>5000</v>
-      </c>
-      <c r="T47" s="120"/>
-    </row>
-    <row r="48" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="121" t="s">
+      <c r="C60" s="122"/>
+      <c r="D60" s="123">
+        <v>12500</v>
+      </c>
+      <c r="E60" s="124"/>
+    </row>
+    <row r="61" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="121"/>
-      <c r="D48" s="122" t="s">
-        <v>231</v>
-      </c>
-      <c r="E48" s="123"/>
-      <c r="G48" s="121" t="s">
-        <v>147</v>
-      </c>
-      <c r="H48" s="121"/>
-      <c r="I48" s="122" t="s">
+      <c r="C61" s="125"/>
+      <c r="D61" s="126" t="s">
         <v>207</v>
       </c>
-      <c r="J48" s="123"/>
-      <c r="L48" s="121" t="s">
-        <v>147</v>
-      </c>
-      <c r="M48" s="121"/>
-      <c r="N48" s="122" t="s">
-        <v>205</v>
-      </c>
-      <c r="O48" s="123"/>
-      <c r="Q48" s="121" t="s">
-        <v>147</v>
-      </c>
-      <c r="R48" s="121"/>
-      <c r="S48" s="122" t="s">
-        <v>207</v>
-      </c>
-      <c r="T48" s="123"/>
-    </row>
-    <row r="49" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="E61" s="127"/>
+    </row>
+    <row r="62" spans="2:5" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="326">
+  <mergeCells count="351">
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
     <mergeCell ref="L48:M48"/>
@@ -5617,6 +7661,31 @@
     <mergeCell ref="S44:T44"/>
     <mergeCell ref="Q45:R45"/>
     <mergeCell ref="S45:T45"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5627,10 +7696,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -5654,14 +7723,16 @@
     <col min="19" max="19" width="7" style="6" customWidth="1"/>
     <col min="20" max="21" width="9" style="6"/>
     <col min="22" max="22" width="13.75" style="6" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="6"/>
+    <col min="23" max="25" width="9" style="6"/>
+    <col min="26" max="26" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="140"/>
+      <c r="C1" s="144"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -5793,11 +7864,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" ref="E8:E25" ca="1" si="0">TODAY()</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8" ca="1" si="1">E8+H8</f>
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="G8" s="10">
         <v>11500</v>
@@ -5817,7 +7888,7 @@
       </c>
       <c r="L8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-3.5300391280514845</v>
+        <v>-4.3516817088819124</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="13">
@@ -5826,11 +7897,11 @@
       </c>
       <c r="O8" s="13">
         <f>IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>3.5300391280514845</v>
+        <v>4.3516817088819124</v>
       </c>
       <c r="P8" s="11">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>14815</v>
+        <v>14705</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>85</v>
@@ -5844,15 +7915,15 @@
       </c>
       <c r="T8" s="14">
         <f t="shared" ref="T8" si="4">O8/P8</f>
-        <v>2.3827466271019132E-4</v>
+        <v>2.959321121306979E-4</v>
       </c>
       <c r="U8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>6.7586862158464101E-3</v>
+        <v>8.224292862735183E-3</v>
       </c>
       <c r="V8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-1.4054318499098102</v>
+        <v>-1.6565329595515692</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5868,11 +7939,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9" ca="1" si="5">E9+H9</f>
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="G9" s="10">
         <v>11500</v>
@@ -5892,7 +7963,7 @@
       </c>
       <c r="L9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>-3.5300391280514845</v>
+        <v>-4.3516817088819124</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="13">
@@ -5901,11 +7972,11 @@
       </c>
       <c r="O9" s="13">
         <f>IF(L9&lt;=0,ABS(L9)+N9,L9-N9)</f>
-        <v>3.5300391280514845</v>
+        <v>4.3516817088819124</v>
       </c>
       <c r="P9" s="11">
         <f>RTD("wdf.rtq",,D9,"LastPrice")</f>
-        <v>14815</v>
+        <v>14705</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>85</v>
@@ -5919,15 +7990,15 @@
       </c>
       <c r="T9" s="14">
         <f t="shared" ref="T9" si="8">O9/P9</f>
-        <v>2.3827466271019132E-4</v>
+        <v>2.959321121306979E-4</v>
       </c>
       <c r="U9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>6.7586862158464101E-3</v>
+        <v>8.224292862735183E-3</v>
       </c>
       <c r="V9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>-1.4054318499098102</v>
+        <v>-1.6565329595515692</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
@@ -5949,11 +8020,11 @@
       </c>
       <c r="E11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ref="F11" ca="1" si="9">E11+H11</f>
-        <v>43228</v>
+        <v>43230</v>
       </c>
       <c r="G11" s="11">
         <v>3700</v>
@@ -6031,15 +8102,15 @@
         <v>160</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ref="F13" ca="1" si="13">E13+H13</f>
-        <v>43258</v>
+        <v>43260</v>
       </c>
       <c r="G13" s="11">
         <f>P13</f>
@@ -6055,7 +8126,7 @@
       <c r="J13" s="12">
         <v>0</v>
       </c>
-      <c r="K13" s="144">
+      <c r="K13" s="118">
         <v>0.21</v>
       </c>
       <c r="L13" s="13">
@@ -6117,18 +8188,18 @@
         <v>160</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14" ca="1" si="17">E14+H14</f>
-        <v>43287</v>
+        <v>43289</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" ref="G14:G25" si="18">P14</f>
+        <f t="shared" ref="G14:G23" si="18">P14</f>
         <v>100</v>
       </c>
       <c r="H14" s="10">
@@ -6141,7 +8212,7 @@
       <c r="J14" s="12">
         <v>0</v>
       </c>
-      <c r="K14" s="144">
+      <c r="K14" s="118">
         <v>0.21</v>
       </c>
       <c r="L14" s="13">
@@ -6228,15 +8299,15 @@
         <v>160</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16" ca="1" si="22">E16+H16</f>
-        <v>43258</v>
+        <v>43260</v>
       </c>
       <c r="G16" s="11">
         <f t="shared" si="18"/>
@@ -6252,7 +8323,7 @@
       <c r="J16" s="12">
         <v>0</v>
       </c>
-      <c r="K16" s="144">
+      <c r="K16" s="118">
         <v>0.1075</v>
       </c>
       <c r="L16" s="13">
@@ -6305,7 +8376,7 @@
         <v>-246.45656000679139</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
       <c r="B17" s="13"/>
       <c r="C17" s="10"/>
@@ -6330,7 +8401,7 @@
       <c r="V17" s="13"/>
       <c r="X17" s="115"/>
     </row>
-    <row r="18" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="34"/>
       <c r="B18" s="13" t="s">
         <v>172</v>
@@ -6339,15 +8410,15 @@
         <v>160</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18:F21" ca="1" si="26">E18+H18</f>
-        <v>43258</v>
+        <v>43260</v>
       </c>
       <c r="G18" s="11">
         <f t="shared" si="18"/>
@@ -6363,7 +8434,7 @@
       <c r="J18" s="12">
         <v>0</v>
       </c>
-      <c r="K18" s="144">
+      <c r="K18" s="118">
         <v>0.16500000000000001</v>
       </c>
       <c r="L18" s="13">
@@ -6416,7 +8487,7 @@
         <v>-244.78843263811001</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
       <c r="B19" s="13" t="s">
         <v>172</v>
@@ -6425,36 +8496,35 @@
         <v>160</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="G19" s="11">
-        <f t="shared" si="18"/>
-        <v>100</v>
+        <v>3300</v>
       </c>
       <c r="H19" s="10">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I19" s="12">
         <f>H19/365</f>
-        <v>8.4931506849315067E-2</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="J19" s="12">
         <v>0</v>
       </c>
       <c r="K19" s="9">
-        <v>0.23499999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="L19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-2.7270290801658206</v>
+        <v>8.9735040373964807</v>
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="13">
@@ -6463,46 +8533,47 @@
       </c>
       <c r="O19" s="13">
         <f>IF(L19&lt;=0,ABS(L19)+N19,L19-N19)</f>
-        <v>2.7270290801658206</v>
+        <v>8.9735040373964807</v>
       </c>
       <c r="P19" s="11">
-        <v>100</v>
+        <f>RTD("wdf.rtq",,D19,"LastPrice")</f>
+        <v>3592</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>85</v>
       </c>
       <c r="R19" s="10">
         <f t="shared" si="28"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="T19" s="14">
         <f t="shared" si="29"/>
-        <v>2.7270290801658204E-2</v>
+        <v>2.4981915471593767E-3</v>
       </c>
       <c r="U19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>0.48551627498873984</v>
+        <v>-8.4300118726332585E-2</v>
       </c>
       <c r="V19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-0.11599839964151215</v>
+        <v>1.5907091806281812</v>
       </c>
       <c r="W19" s="115">
         <v>37.799999999999997</v>
       </c>
       <c r="X19" s="116">
         <f>G19-W19</f>
-        <v>62.2</v>
+        <v>3262.2</v>
       </c>
       <c r="Y19" s="6">
         <f>500*U19</f>
-        <v>242.75813749436992</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-42.150059363166292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34"/>
       <c r="B20" s="13" t="s">
         <v>172</v>
@@ -6511,36 +8582,35 @@
         <v>160</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>43287</v>
+        <v>43259</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="18"/>
-        <v>100</v>
+        <v>3350</v>
       </c>
       <c r="H20" s="10">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I20" s="12">
         <f>H20/365</f>
-        <v>0.16438356164383561</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="J20" s="12">
         <v>0</v>
       </c>
       <c r="K20" s="9">
-        <v>0.16500000000000001</v>
+        <v>0.2225</v>
       </c>
       <c r="L20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>2.6595882620095068</v>
+        <v>15.35164967286687</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="13">
@@ -6549,10 +8619,11 @@
       </c>
       <c r="O20" s="13">
         <f>IF(L20&lt;=0,ABS(L20)+N20,L20-N20)</f>
-        <v>2.6595882620095068</v>
+        <v>15.35164967286687</v>
       </c>
       <c r="P20" s="11">
-        <v>100</v>
+        <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
+        <v>3592</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>85</v>
@@ -6566,29 +8637,29 @@
       </c>
       <c r="T20" s="14">
         <f t="shared" si="29"/>
-        <v>2.6595882620095067E-2</v>
+        <v>4.2738445637157214E-3</v>
       </c>
       <c r="U20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-0.48506093716227383</v>
+        <v>-0.13001106900389914</v>
       </c>
       <c r="V20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>0.16112695214300032</v>
+        <v>2.1759219688116218</v>
       </c>
       <c r="W20" s="115">
         <v>37.799999999999997</v>
       </c>
       <c r="X20" s="116">
         <f>G20-W20</f>
-        <v>62.2</v>
+        <v>3312.2</v>
       </c>
       <c r="Y20" s="6">
         <f>500*U20</f>
-        <v>-242.53046858113692</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-65.005534501949569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="34"/>
       <c r="B21" s="13" t="s">
         <v>172</v>
@@ -6597,36 +8668,35 @@
         <v>160</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>43287</v>
+        <v>43259</v>
       </c>
       <c r="G21" s="11">
-        <f t="shared" si="18"/>
-        <v>100</v>
+        <v>3400</v>
       </c>
       <c r="H21" s="10">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I21" s="12">
         <f>H21/365</f>
-        <v>0.16438356164383561</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="J21" s="12">
         <v>0</v>
       </c>
       <c r="K21" s="9">
-        <v>0.23499999999999999</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="L21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-3.7871722212029653</v>
+        <v>24.670385901924419</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="13">
@@ -6635,46 +8705,47 @@
       </c>
       <c r="O21" s="13">
         <f>IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>3.7871722212029653</v>
+        <v>24.670385901924419</v>
       </c>
       <c r="P21" s="11">
-        <v>100</v>
+        <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
+        <v>3592</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>85</v>
       </c>
       <c r="R21" s="10">
         <f t="shared" si="28"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="T21" s="14">
         <f t="shared" si="29"/>
-        <v>3.7871722212029654E-2</v>
+        <v>6.8681475228074664E-3</v>
       </c>
       <c r="U21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>0.47942301293666389</v>
+        <v>-0.18807492380119584</v>
       </c>
       <c r="V21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.16103427575489704</v>
+        <v>2.7737718942453284</v>
       </c>
       <c r="W21" s="115">
         <v>37.799999999999997</v>
       </c>
       <c r="X21" s="116">
         <f>G21-W21</f>
-        <v>62.2</v>
+        <v>3362.2</v>
       </c>
       <c r="Y21" s="6">
         <f>500*U21</f>
-        <v>239.71150646833195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-94.037461900597918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="34"/>
       <c r="B22" s="13"/>
       <c r="C22" s="10"/>
@@ -6699,7 +8770,7 @@
       <c r="V22" s="13"/>
       <c r="X22" s="115"/>
     </row>
-    <row r="23" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="34"/>
       <c r="B23" s="13" t="s">
         <v>172</v>
@@ -6708,15 +8779,15 @@
         <v>160</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" ref="F23" ca="1" si="30">E23+H23</f>
-        <v>43258</v>
+        <v>43260</v>
       </c>
       <c r="G23" s="11">
         <f t="shared" si="18"/>
@@ -6732,7 +8803,7 @@
       <c r="J23" s="12">
         <v>0</v>
       </c>
-      <c r="K23" s="143">
+      <c r="K23" s="117">
         <v>0.14749999999999999</v>
       </c>
       <c r="L23" s="13">
@@ -6785,7 +8856,7 @@
         <v>-245.29609293644228</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
       <c r="B24" s="13"/>
       <c r="C24" s="10"/>
@@ -6809,7 +8880,7 @@
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
     </row>
-    <row r="25" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="34"/>
       <c r="B25" s="13" t="s">
         <v>172</v>
@@ -6818,48 +8889,49 @@
         <v>160</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" ref="F25" ca="1" si="34">E25+H25</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="G25" s="11">
-        <f t="shared" si="18"/>
-        <v>100</v>
+        <v>49000</v>
       </c>
       <c r="H25" s="10">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I25" s="12">
         <f>H25/365</f>
-        <v>8.4931506849315067E-2</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="J25" s="12">
         <v>0</v>
       </c>
       <c r="K25" s="9">
-        <v>0.16</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="L25" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q25,$P25,$G25,$I25,$C$3,$J25,$K25,$C$4)*R25</f>
-        <v>1.8568952897944655</v>
-      </c>
-      <c r="M25" s="15"/>
+        <v>143.71277212501172</v>
+      </c>
+      <c r="M25" s="15">
+        <v>30</v>
+      </c>
       <c r="N25" s="13">
         <f t="shared" ref="N25" si="35">M25/10000*I25*P25</f>
-        <v>0</v>
+        <v>12.587671232876712</v>
       </c>
       <c r="O25" s="13">
         <f>IF(L25&lt;=0,ABS(L25)+N25,L25-N25)</f>
-        <v>1.8568952897944655</v>
+        <v>131.12510089213501</v>
       </c>
       <c r="P25" s="11">
-        <v>100</v>
+        <v>51050</v>
       </c>
       <c r="Q25" s="10" t="s">
         <v>85</v>
@@ -6873,29 +8945,29 @@
       </c>
       <c r="T25" s="14">
         <f t="shared" ref="T25" si="37">O25/P25</f>
-        <v>1.8568952897944656E-2</v>
+        <v>2.5685622114032325E-3</v>
       </c>
       <c r="U25" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q25,$P25,$G25,$I25,$C$3,$J25,$K25,$C$4)*R25</f>
-        <v>-0.48986695075718956</v>
+        <v>-0.14021665033396857</v>
       </c>
       <c r="V25" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q25,$P25,$G25,$I25,$C$3,$J25,$K25,$C$4)*R25</f>
-        <v>0.11603488824051666</v>
+        <v>32.529635749877343</v>
       </c>
       <c r="W25" s="115">
         <v>37.799999999999997</v>
       </c>
       <c r="X25" s="116">
         <f>G25-W25</f>
-        <v>62.2</v>
+        <v>48962.2</v>
       </c>
       <c r="Y25" s="6">
         <f>500*U25</f>
-        <v>-244.93347537859478</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-70.108325166984287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="34"/>
       <c r="B26" s="13"/>
       <c r="C26" s="10"/>
@@ -6919,7 +8991,7 @@
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
     </row>
-    <row r="27" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="34"/>
       <c r="B27" s="13"/>
       <c r="C27" s="10"/>
@@ -6939,59 +9011,193 @@
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="13"/>
+      <c r="T27" s="14">
+        <f>T28+T29</f>
+        <v>0.15410202644758225</v>
+      </c>
+      <c r="U27" s="12">
+        <f>T27/2</f>
+        <v>7.7051013223791126E-2</v>
+      </c>
       <c r="V27" s="13"/>
     </row>
-    <row r="28" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="34"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="13"/>
+      <c r="B28" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" ref="E28:E37" ca="1" si="38">TODAY()</f>
+        <v>43229</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" ref="F28:F37" ca="1" si="39">E28+H28</f>
+        <v>43327</v>
+      </c>
+      <c r="G28" s="11">
+        <v>500</v>
+      </c>
+      <c r="H28" s="10">
+        <v>98</v>
+      </c>
+      <c r="I28" s="12">
+        <f>H28/365</f>
+        <v>0.26849315068493151</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+      <c r="K28" s="118">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="L28" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
+        <v>-50.71337289786527</v>
+      </c>
       <c r="M28" s="15"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-    </row>
-    <row r="29" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N28" s="13">
+        <f t="shared" ref="N28:N37" si="40">M28/10000*I28*P28</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="13">
+        <f>IF(L28&lt;=0,ABS(L28)+N28,L28-N28)</f>
+        <v>50.71337289786527</v>
+      </c>
+      <c r="P28" s="11">
+        <f>RTD("wdf.rtq",,D28,"LastPrice")</f>
+        <v>471</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R28" s="10">
+        <f t="shared" ref="R28:R37" si="41">IF(S28="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28" s="14">
+        <f t="shared" ref="T28:T37" si="42">O28/P28</f>
+        <v>0.10767170466638061</v>
+      </c>
+      <c r="U28" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
+        <v>0.59351883003557759</v>
+      </c>
+      <c r="V28" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
+        <v>-0.93978112857539031</v>
+      </c>
+      <c r="W28" s="115">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="X28" s="116">
+        <f>G28-W28</f>
+        <v>462.2</v>
+      </c>
+      <c r="Y28" s="6">
+        <f>500*U28</f>
+        <v>296.7594150177888</v>
+      </c>
+      <c r="Z28" s="120">
+        <f>U28+U29</f>
+        <v>0.19239313114383094</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="34"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="13"/>
+      <c r="B29" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" ca="1" si="38"/>
+        <v>43229</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" ca="1" si="39"/>
+        <v>43327</v>
+      </c>
+      <c r="G29" s="11">
+        <v>500</v>
+      </c>
+      <c r="H29" s="10">
+        <v>98</v>
+      </c>
+      <c r="I29" s="12">
+        <f>H29/365</f>
+        <v>0.26849315068493151</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+      <c r="K29" s="118">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="L29" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
+        <v>-21.86868155894598</v>
+      </c>
       <c r="M29" s="15"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-    </row>
-    <row r="30" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N29" s="13">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="13">
+        <f>IF(L29&lt;=0,ABS(L29)+N29,L29-N29)</f>
+        <v>21.86868155894598</v>
+      </c>
+      <c r="P29" s="11">
+        <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
+        <v>471</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R29" s="10">
+        <f t="shared" si="41"/>
+        <v>-1</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" s="14">
+        <f t="shared" si="42"/>
+        <v>4.6430321781201656E-2</v>
+      </c>
+      <c r="U29" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
+        <v>-0.40112569889174665</v>
+      </c>
+      <c r="V29" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
+        <v>-0.93978112857541873</v>
+      </c>
+      <c r="W29" s="115">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="X29" s="116">
+        <f>G29-W29</f>
+        <v>462.2</v>
+      </c>
+      <c r="Y29" s="6">
+        <f>500*U29</f>
+        <v>-200.56284944587333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="34"/>
       <c r="B30" s="13"/>
       <c r="C30" s="10"/>
@@ -7002,7 +9208,7 @@
       <c r="H30" s="10"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="9"/>
+      <c r="K30" s="118"/>
       <c r="L30" s="13"/>
       <c r="M30" s="15"/>
       <c r="N30" s="13"/>
@@ -7014,56 +9220,182 @@
       <c r="T30" s="14"/>
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
-    </row>
-    <row r="31" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W30" s="115"/>
+      <c r="X30" s="116"/>
+    </row>
+    <row r="31" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="34"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="13"/>
+      <c r="B31" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" ca="1" si="38"/>
+        <v>43229</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" ca="1" si="39"/>
+        <v>43259</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" ref="G31:G37" si="43">P31</f>
+        <v>100</v>
+      </c>
+      <c r="H31" s="10">
+        <v>30</v>
+      </c>
+      <c r="I31" s="12">
+        <f>H31/365</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
+      <c r="K31" s="118">
+        <v>0.215</v>
+      </c>
+      <c r="L31" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
+        <v>2.4545962454477035</v>
+      </c>
       <c r="M31" s="15"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-    </row>
-    <row r="32" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N31" s="13">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="13">
+        <f>IF(L31&lt;=0,ABS(L31)+N31,L31-N31)</f>
+        <v>2.4545962454477035</v>
+      </c>
+      <c r="P31" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R31" s="10">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T31" s="14">
+        <f t="shared" si="42"/>
+        <v>2.4545962454477033E-2</v>
+      </c>
+      <c r="U31" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
+        <v>-0.48690579229031528</v>
+      </c>
+      <c r="V31" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
+        <v>0.1141310863072178</v>
+      </c>
+      <c r="W31" s="115">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="X31" s="116">
+        <f>G31-W31</f>
+        <v>62.2</v>
+      </c>
+      <c r="Y31" s="6">
+        <f>500*U31</f>
+        <v>-243.45289614515764</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="13"/>
+      <c r="B32" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" ca="1" si="38"/>
+        <v>43229</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" ca="1" si="39"/>
+        <v>43259</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" si="43"/>
+        <v>100</v>
+      </c>
+      <c r="H32" s="10">
+        <v>30</v>
+      </c>
+      <c r="I32" s="12">
+        <f>H32/365</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="J32" s="12">
+        <v>0</v>
+      </c>
+      <c r="K32" s="118">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="L32" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
+        <v>-3.2533772011772371</v>
+      </c>
       <c r="M32" s="15"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-    </row>
-    <row r="33" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N32" s="13">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="13">
+        <f>IF(L32&lt;=0,ABS(L32)+N32,L32-N32)</f>
+        <v>3.2533772011772371</v>
+      </c>
+      <c r="P32" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R32" s="10">
+        <f t="shared" si="41"/>
+        <v>-1</v>
+      </c>
+      <c r="S32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T32" s="14">
+        <f t="shared" si="42"/>
+        <v>3.253377201177237E-2</v>
+      </c>
+      <c r="U32" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
+        <v>0.4829118835409929</v>
+      </c>
+      <c r="V32" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
+        <v>-0.1140900534253646</v>
+      </c>
+      <c r="W32" s="115">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="X32" s="116">
+        <f>G32-W32</f>
+        <v>62.2</v>
+      </c>
+      <c r="Y32" s="6">
+        <f>500*U32</f>
+        <v>241.45594177049645</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="34"/>
       <c r="B33" s="13"/>
       <c r="C33" s="10"/>
@@ -7074,7 +9406,7 @@
       <c r="H33" s="10"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
-      <c r="K33" s="9"/>
+      <c r="K33" s="118"/>
       <c r="L33" s="13"/>
       <c r="M33" s="15"/>
       <c r="N33" s="13"/>
@@ -7086,32 +9418,96 @@
       <c r="T33" s="14"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
-    </row>
-    <row r="34" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W33" s="115"/>
+      <c r="X33" s="116"/>
+    </row>
+    <row r="34" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="34"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="13"/>
+      <c r="B34" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" s="8">
+        <f t="shared" ca="1" si="38"/>
+        <v>43229</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" ca="1" si="39"/>
+        <v>43259</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="43"/>
+        <v>100</v>
+      </c>
+      <c r="H34" s="10">
+        <v>30</v>
+      </c>
+      <c r="I34" s="12">
+        <f>H34/365</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+      <c r="K34" s="118">
+        <v>0.36</v>
+      </c>
+      <c r="L34" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
+        <v>-4.1088485325048723</v>
+      </c>
       <c r="M34" s="15"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-    </row>
-    <row r="35" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N34" s="13">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="13">
+        <f>IF(L34&lt;=0,ABS(L34)+N34,L34-N34)</f>
+        <v>4.1088485325048723</v>
+      </c>
+      <c r="P34" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R34" s="10">
+        <f t="shared" si="41"/>
+        <v>-1</v>
+      </c>
+      <c r="S34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T34" s="14">
+        <f t="shared" si="42"/>
+        <v>4.1088485325048725E-2</v>
+      </c>
+      <c r="U34" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
+        <v>0.47863452434313558</v>
+      </c>
+      <c r="V34" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
+        <v>-0.11403336440540457</v>
+      </c>
+      <c r="W34" s="115">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="X34" s="116">
+        <f>G34-W34</f>
+        <v>62.2</v>
+      </c>
+      <c r="Y34" s="6">
+        <f>500*U34</f>
+        <v>239.31726217156779</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="34"/>
       <c r="B35" s="13"/>
       <c r="C35" s="10"/>
@@ -7122,7 +9518,7 @@
       <c r="H35" s="10"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
-      <c r="K35" s="9"/>
+      <c r="K35" s="118"/>
       <c r="L35" s="13"/>
       <c r="M35" s="15"/>
       <c r="N35" s="13"/>
@@ -7134,107 +9530,294 @@
       <c r="T35" s="14"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="E38" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="E39" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="F39" s="6" t="s">
+      <c r="W35" s="115"/>
+      <c r="X35" s="116"/>
+    </row>
+    <row r="36" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="34"/>
+      <c r="B36" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" ca="1" si="38"/>
+        <v>43229</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" ca="1" si="39"/>
+        <v>43259</v>
+      </c>
+      <c r="G36" s="11">
+        <v>12105</v>
+      </c>
+      <c r="H36" s="10">
+        <v>30</v>
+      </c>
+      <c r="I36" s="12">
+        <f>H36/365</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0</v>
+      </c>
+      <c r="K36" s="118">
+        <v>0.3</v>
+      </c>
+      <c r="L36" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
+        <v>-219.28971571752936</v>
+      </c>
+      <c r="M36" s="15">
+        <v>70</v>
+      </c>
+      <c r="N36" s="13">
+        <f t="shared" si="40"/>
+        <v>6.7027397260273966</v>
+      </c>
+      <c r="O36" s="13">
+        <f>IF(L36&lt;=0,ABS(L36)+N36,L36-N36)</f>
+        <v>225.99245544355676</v>
+      </c>
+      <c r="P36" s="11">
+        <f>RTD("wdf.rtq",,D36,"LastPrice")</f>
+        <v>11650</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R36" s="10">
+        <f t="shared" si="41"/>
+        <v>-1</v>
+      </c>
+      <c r="S36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" s="14">
+        <f t="shared" si="42"/>
+        <v>1.939849402948985E-2</v>
+      </c>
+      <c r="U36" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
+        <v>-0.34311139413603087</v>
+      </c>
+      <c r="V36" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
+        <v>-12.266497641076512</v>
+      </c>
+      <c r="W36" s="115">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="X36" s="116">
+        <f>G36-W36</f>
+        <v>12067.2</v>
+      </c>
+      <c r="Y36" s="6">
+        <f>500*U36</f>
+        <v>-171.55569706801543</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="34"/>
+      <c r="B37" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37" s="8">
+        <f ca="1">TODAY()</f>
+        <v>43229</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" ca="1" si="39"/>
+        <v>43319</v>
+      </c>
+      <c r="G37" s="11">
+        <v>12105</v>
+      </c>
+      <c r="H37" s="10">
+        <v>90</v>
+      </c>
+      <c r="I37" s="12">
+        <f>H37/365</f>
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0</v>
+      </c>
+      <c r="K37" s="118">
+        <v>0.31</v>
+      </c>
+      <c r="L37" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
+        <v>-521.02038581172292</v>
+      </c>
+      <c r="M37" s="15">
+        <v>70</v>
+      </c>
+      <c r="N37" s="13">
+        <f t="shared" si="40"/>
+        <v>20.108219178082191</v>
+      </c>
+      <c r="O37" s="13">
+        <f>IF(L37&lt;=0,ABS(L37)+N37,L37-N37)</f>
+        <v>541.12860498980513</v>
+      </c>
+      <c r="P37" s="11">
+        <f>RTD("wdf.rtq",,D37,"LastPrice")</f>
+        <v>11650</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R37" s="10">
+        <f t="shared" si="41"/>
+        <v>-1</v>
+      </c>
+      <c r="S37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" s="14">
+        <f t="shared" si="42"/>
+        <v>4.644880729526224E-2</v>
+      </c>
+      <c r="U37" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
+        <v>-0.42962624238498393</v>
+      </c>
+      <c r="V37" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
+        <v>-22.62750926436911</v>
+      </c>
+      <c r="W37" s="115">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="X37" s="116">
+        <f>G37-W37</f>
+        <v>12067.2</v>
+      </c>
+      <c r="Y37" s="6">
+        <f>500*U37</f>
+        <v>-214.81312119249196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="34"/>
+      <c r="B38" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="D40" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E40" s="145">
-        <v>0.21</v>
-      </c>
-      <c r="F40" s="145">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G40" s="6">
-        <v>21.76</v>
-      </c>
-      <c r="H40" s="6">
-        <v>28.57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="D41" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E41" s="145">
-        <v>0.1075</v>
-      </c>
-      <c r="F41" s="145">
-        <v>0.1575</v>
-      </c>
-      <c r="G41" s="6">
-        <v>11.11</v>
-      </c>
-      <c r="H41" s="6">
-        <v>14.46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="D42" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E42" s="145">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="F42" s="145">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="G42" s="6">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="H42" s="6">
-        <v>24.59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="D43" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E43" s="145">
-        <v>0.14749999999999999</v>
-      </c>
-      <c r="F43" s="145">
-        <v>0.20250000000000001</v>
-      </c>
-      <c r="G43" s="6">
-        <v>13.84</v>
-      </c>
-      <c r="H43" s="6">
-        <v>18.079999999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="D44" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G44" s="6">
-        <v>18.16</v>
-      </c>
-      <c r="H44" s="6">
-        <v>22.4</v>
-      </c>
+      <c r="E38" s="8">
+        <f ca="1">TODAY()</f>
+        <v>43229</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" ref="F38" ca="1" si="44">E38+H38</f>
+        <v>43329</v>
+      </c>
+      <c r="G38" s="11">
+        <v>12105</v>
+      </c>
+      <c r="H38" s="10">
+        <v>100</v>
+      </c>
+      <c r="I38" s="12">
+        <f>H38/365</f>
+        <v>0.27397260273972601</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+      <c r="K38" s="118">
+        <v>0.315</v>
+      </c>
+      <c r="L38" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
+        <v>-1771.989615781471</v>
+      </c>
+      <c r="M38" s="15">
+        <v>70</v>
+      </c>
+      <c r="N38" s="13">
+        <f t="shared" ref="N38" si="45">M38/10000*I38*P38</f>
+        <v>26.053424657534247</v>
+      </c>
+      <c r="O38" s="13">
+        <f>IF(L38&lt;=0,ABS(L38)+N38,L38-N38)</f>
+        <v>1798.0430404390052</v>
+      </c>
+      <c r="P38" s="11">
+        <f>RTD("wdf.rtq",,D38,"LastPrice")</f>
+        <v>13585</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R38" s="10">
+        <f t="shared" ref="R38" si="46">IF(S38="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" s="14">
+        <f t="shared" ref="T38" si="47">O38/P38</f>
+        <v>0.13235502690018441</v>
+      </c>
+      <c r="U38" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
+        <v>-0.77862366706540342</v>
+      </c>
+      <c r="V38" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
+        <v>-20.775507810470117</v>
+      </c>
+      <c r="W38" s="115">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="X38" s="116">
+        <f>G38-W38</f>
+        <v>12067.2</v>
+      </c>
+      <c r="Y38" s="6">
+        <f>500*U38</f>
+        <v>-389.31183353270171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="L41" s="147">
+        <f>L38*2500</f>
+        <v>-4429974.0394536778</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="E43" s="119"/>
+      <c r="F43" s="119"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="E44" s="119"/>
+      <c r="F44" s="119"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7250,19 +9833,19 @@
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>S8:S9 S11 S13:S35</xm:sqref>
+          <xm:sqref>S8:S9 S11 S13:S38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q8:Q9 Q11 Q13:Q35</xm:sqref>
+          <xm:sqref>Q8:Q9 Q11 Q13:Q38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C9 C11 C13:C35</xm:sqref>
+          <xm:sqref>C8:C9 C11 C13:C38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7272,11 +9855,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7306,10 +9903,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="140"/>
+      <c r="C1" s="144"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="29" t="s">
@@ -7436,11 +10033,11 @@
       </c>
       <c r="E8" s="46">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F8" s="46">
         <f ca="1">E8+H8</f>
-        <v>43257</v>
+        <v>43259</v>
       </c>
       <c r="G8" s="44">
         <v>100</v>
@@ -7504,11 +10101,11 @@
       </c>
       <c r="E9" s="54">
         <f ca="1">E8</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F9" s="54">
         <f ca="1">F8</f>
-        <v>43257</v>
+        <v>43259</v>
       </c>
       <c r="G9" s="52">
         <v>100</v>
@@ -7575,11 +10172,11 @@
       </c>
       <c r="E10" s="62">
         <f ca="1">E9</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F10" s="62">
         <f ca="1">F9</f>
-        <v>43257</v>
+        <v>43259</v>
       </c>
       <c r="G10" s="60" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -7643,15 +10240,15 @@
       </c>
       <c r="E11" s="46">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F11" s="46">
         <f ca="1">E11+H11</f>
-        <v>43242</v>
+        <v>43244</v>
       </c>
       <c r="G11" s="113">
         <f>P11-20</f>
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H11" s="44">
         <v>15</v>
@@ -7668,17 +10265,17 @@
       </c>
       <c r="L11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-3.8912702006581696</v>
+        <v>-3.9100531328264481</v>
       </c>
       <c r="M11" s="49"/>
       <c r="N11" s="43"/>
       <c r="O11" s="43">
         <f t="shared" ref="O11:O13" si="1">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>3.8912702006581696</v>
+        <v>3.9100531328264481</v>
       </c>
       <c r="P11" s="110">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q11" s="44" t="s">
         <v>85</v>
@@ -7693,11 +10290,11 @@
       <c r="T11" s="50"/>
       <c r="U11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.2278181659015388</v>
+        <v>0.228286869133143</v>
       </c>
       <c r="V11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.28759799070841296</v>
+        <v>-0.288543309887352</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -7713,15 +10310,15 @@
       </c>
       <c r="E12" s="54">
         <f t="shared" ref="E12:F12" ca="1" si="2">E11</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F12" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43242</v>
+        <v>43244</v>
       </c>
       <c r="G12" s="52">
         <f>G11+50</f>
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H12" s="52">
         <f>H11</f>
@@ -7740,17 +10337,17 @@
       </c>
       <c r="L12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>2.1440238692729991</v>
+        <v>2.1575075179823671</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="51"/>
       <c r="O12" s="51">
         <f t="shared" si="1"/>
-        <v>2.1440238692729991</v>
+        <v>2.1575075179823671</v>
       </c>
       <c r="P12" s="94">
         <f>P11</f>
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q12" s="52" t="s">
         <v>39</v>
@@ -7765,11 +10362,11 @@
       <c r="T12" s="58"/>
       <c r="U12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.1530039164087782</v>
+        <v>0.15351630412610007</v>
       </c>
       <c r="V12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.22494332992713595</v>
+        <v>0.2259218943678718</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -7786,15 +10383,15 @@
       </c>
       <c r="E13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43242</v>
+        <v>43244</v>
       </c>
       <c r="G13" s="60" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
-        <v>450|500</v>
+        <v>451|501</v>
       </c>
       <c r="H13" s="60">
         <f>H12</f>
@@ -7808,7 +10405,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="59">
         <f>L12+L11</f>
-        <v>-1.7472463313851705</v>
+        <v>-1.752545614844081</v>
       </c>
       <c r="M13" s="60">
         <v>0</v>
@@ -7819,11 +10416,11 @@
       </c>
       <c r="O13" s="59">
         <f t="shared" si="1"/>
-        <v>1.7472463313851705</v>
+        <v>1.752545614844081</v>
       </c>
       <c r="P13" s="111">
         <f>P12</f>
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
@@ -7832,15 +10429,15 @@
       </c>
       <c r="T13" s="64">
         <f>O13/P13</f>
-        <v>3.7175453859258946E-3</v>
+        <v>3.7209036408579216E-3</v>
       </c>
       <c r="U13" s="64">
         <f>U12+U11</f>
-        <v>0.380822082310317</v>
+        <v>0.38180317325924307</v>
       </c>
       <c r="V13" s="64">
         <f>V12+V11</f>
-        <v>-6.2654660781277016E-2</v>
+        <v>-6.2621415519480195E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -7856,11 +10453,11 @@
       </c>
       <c r="E14" s="46">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F14" s="46">
         <f ca="1">E14+H14</f>
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="G14" s="113">
         <v>3480</v>
@@ -7881,17 +10478,17 @@
       </c>
       <c r="L14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-311.54899932283524</v>
+        <v>-270.45317265831864</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43">
         <f t="shared" ref="O14:O16" si="4">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>311.54899932283524</v>
+        <v>270.45317265831864</v>
       </c>
       <c r="P14" s="110">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3657</v>
+        <v>3592</v>
       </c>
       <c r="Q14" s="44" t="s">
         <v>39</v>
@@ -7906,11 +10503,11 @@
       <c r="T14" s="50"/>
       <c r="U14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.6543906841216085</v>
+        <v>-0.6096536298286992</v>
       </c>
       <c r="V14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-6.674336733988639</v>
+        <v>-6.8333981515501137</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -7927,11 +10524,11 @@
       </c>
       <c r="E15" s="54">
         <f t="shared" ref="E15:F15" ca="1" si="5">E14</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F15" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="G15" s="52">
         <v>3280</v>
@@ -7953,17 +10550,17 @@
       </c>
       <c r="L15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>60.087592488789483</v>
+        <v>74.098449648534256</v>
       </c>
       <c r="M15" s="57"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51">
         <f t="shared" si="4"/>
-        <v>60.087592488789483</v>
+        <v>74.098449648534256</v>
       </c>
       <c r="P15" s="94">
         <f>P14</f>
-        <v>3657</v>
+        <v>3592</v>
       </c>
       <c r="Q15" s="52" t="s">
         <v>85</v>
@@ -7978,11 +10575,11 @@
       <c r="T15" s="58"/>
       <c r="U15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.19720213309710743</v>
+        <v>-0.23464011515557104</v>
       </c>
       <c r="V15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>5.0572710372574079</v>
+        <v>5.4933323177334046</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -7999,11 +10596,11 @@
       </c>
       <c r="E16" s="62">
         <f t="shared" ref="E16:F16" ca="1" si="6">E15</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F16" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -8021,7 +10618,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="59">
         <f>L15+L14</f>
-        <v>-251.46140683404576</v>
+        <v>-196.35472300978438</v>
       </c>
       <c r="M16" s="60">
         <v>0</v>
@@ -8032,11 +10629,11 @@
       </c>
       <c r="O16" s="59">
         <f t="shared" si="4"/>
-        <v>251.46140683404576</v>
+        <v>196.35472300978438</v>
       </c>
       <c r="P16" s="111">
         <f>P15</f>
-        <v>3657</v>
+        <v>3592</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
@@ -8045,15 +10642,15 @@
       </c>
       <c r="T16" s="64">
         <f>O16/P16</f>
-        <v>6.8761664433701325E-2</v>
+        <v>5.4664455180897659E-2</v>
       </c>
       <c r="U16" s="64">
         <f>U15+U14</f>
-        <v>-0.85159281721871594</v>
+        <v>-0.84429374498427023</v>
       </c>
       <c r="V16" s="64">
         <f>V15+V14</f>
-        <v>-1.6170656967312311</v>
+        <v>-1.3400658338167091</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -8070,15 +10667,15 @@
       </c>
       <c r="E18" s="46">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F18" s="46">
         <f ca="1">E18+H18</f>
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="G18" s="113">
         <f>P18</f>
-        <v>51500</v>
+        <v>51170</v>
       </c>
       <c r="H18" s="44">
         <v>91</v>
@@ -8096,17 +10693,17 @@
       </c>
       <c r="L18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-1938.7276115721361</v>
+        <v>-1926.3046967795417</v>
       </c>
       <c r="M18" s="49"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43">
         <f t="shared" ref="O18:O20" si="7">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>1938.7276115721361</v>
+        <v>1926.3046967795417</v>
       </c>
       <c r="P18" s="110">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>51500</v>
+        <v>51170</v>
       </c>
       <c r="Q18" s="44" t="s">
         <v>39</v>
@@ -8121,11 +10718,11 @@
       <c r="T18" s="50"/>
       <c r="U18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.51633565308293328</v>
+        <v>-0.51633565326483222</v>
       </c>
       <c r="V18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-101.96168157152169</v>
+        <v>-101.30833487407472</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -8141,11 +10738,11 @@
       </c>
       <c r="E19" s="54">
         <f t="shared" ref="E19:F19" ca="1" si="8">E18</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F19" s="54">
         <f t="shared" ca="1" si="8"/>
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="G19" s="52">
         <v>52000</v>
@@ -8167,17 +10764,17 @@
       </c>
       <c r="L19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>1658.5120785698746</v>
+        <v>1506.5173738952362</v>
       </c>
       <c r="M19" s="57"/>
       <c r="N19" s="51"/>
       <c r="O19" s="51">
         <f t="shared" si="7"/>
-        <v>1658.5120785698746</v>
+        <v>1506.5173738952362</v>
       </c>
       <c r="P19" s="94">
         <f>P18</f>
-        <v>51500</v>
+        <v>51170</v>
       </c>
       <c r="Q19" s="52" t="s">
         <v>39</v>
@@ -8192,11 +10789,11 @@
       <c r="T19" s="58"/>
       <c r="U19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>0.47433996751351515</v>
+        <v>0.44684031963697635</v>
       </c>
       <c r="V19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>101.90084732839568</v>
+        <v>100.59046630418743</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -8212,15 +10809,15 @@
       </c>
       <c r="E20" s="62">
         <f t="shared" ref="E20:F20" ca="1" si="9">E19</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F20" s="62">
         <f t="shared" ca="1" si="9"/>
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="G20" s="60" t="str">
         <f>G18 &amp; "|" &amp; G19</f>
-        <v>51500|52000</v>
+        <v>51170|52000</v>
       </c>
       <c r="H20" s="60">
         <f>H19</f>
@@ -8234,7 +10831,7 @@
       <c r="K20" s="60"/>
       <c r="L20" s="59">
         <f>L19+L18</f>
-        <v>-280.21553300226151</v>
+        <v>-419.78732288430547</v>
       </c>
       <c r="M20" s="60">
         <v>0</v>
@@ -8245,11 +10842,11 @@
       </c>
       <c r="O20" s="59">
         <f t="shared" si="7"/>
-        <v>280.21553300226151</v>
+        <v>419.78732288430547</v>
       </c>
       <c r="P20" s="111">
         <f>P19</f>
-        <v>51500</v>
+        <v>51170</v>
       </c>
       <c r="Q20" s="60"/>
       <c r="R20" s="60"/>
@@ -8258,15 +10855,15 @@
       </c>
       <c r="T20" s="64">
         <f>O20/P20</f>
-        <v>5.4410783107235244E-3</v>
+        <v>8.2037780512860172E-3</v>
       </c>
       <c r="U20" s="64">
         <f>U19+U18</f>
-        <v>-4.1995685569418129E-2</v>
+        <v>-6.9495333627855871E-2</v>
       </c>
       <c r="V20" s="64">
         <f>V19+V18</f>
-        <v>-6.0834243126009824E-2</v>
+        <v>-0.71786856988728687</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -8282,11 +10879,11 @@
       </c>
       <c r="E21" s="46">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F21" s="46">
         <f ca="1">E21+H21</f>
-        <v>43257</v>
+        <v>43259</v>
       </c>
       <c r="G21" s="113">
         <v>460</v>
@@ -8306,17 +10903,17 @@
       </c>
       <c r="L21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-13.74971112322001</v>
+        <v>-13.35970550643512</v>
       </c>
       <c r="M21" s="49"/>
       <c r="N21" s="43"/>
       <c r="O21" s="43">
         <f t="shared" ref="O21:O23" si="10">IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>13.74971112322001</v>
+        <v>13.35970550643512</v>
       </c>
       <c r="P21" s="110">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q21" s="44" t="s">
         <v>85</v>
@@ -8331,11 +10928,11 @@
       <c r="T21" s="50"/>
       <c r="U21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>0.39412861580103709</v>
+        <v>0.38589372511239617</v>
       </c>
       <c r="V21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.5178835603424119</v>
+        <v>-0.5158963581771161</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -8352,11 +10949,11 @@
       </c>
       <c r="E22" s="54">
         <f t="shared" ref="E22:F22" ca="1" si="11">E21</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F22" s="54">
         <f t="shared" ca="1" si="11"/>
-        <v>43257</v>
+        <v>43259</v>
       </c>
       <c r="G22" s="52">
         <v>500</v>
@@ -8378,17 +10975,17 @@
       </c>
       <c r="L22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>6.6189424600814846</v>
+        <v>6.8871238129624714</v>
       </c>
       <c r="M22" s="57"/>
       <c r="N22" s="51"/>
       <c r="O22" s="51">
         <f t="shared" si="10"/>
-        <v>6.6189424600814846</v>
+        <v>6.8871238129624714</v>
       </c>
       <c r="P22" s="94">
         <f>P21</f>
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q22" s="52" t="s">
         <v>39</v>
@@ -8403,11 +11000,11 @@
       <c r="T22" s="58"/>
       <c r="U22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>0.26437518005764105</v>
+        <v>0.2720029987642647</v>
       </c>
       <c r="V22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>0.44037919251541524</v>
+        <v>0.44767453652056588</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -8424,11 +11021,11 @@
       </c>
       <c r="E23" s="62">
         <f t="shared" ref="E23:F23" ca="1" si="12">E22</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="F23" s="62">
         <f t="shared" ca="1" si="12"/>
-        <v>43257</v>
+        <v>43259</v>
       </c>
       <c r="G23" s="60" t="str">
         <f>G21 &amp; "|" &amp; G22</f>
@@ -8446,7 +11043,7 @@
       <c r="K23" s="60"/>
       <c r="L23" s="59">
         <f>L22+L21</f>
-        <v>-7.1307686631385252</v>
+        <v>-6.4725816934726481</v>
       </c>
       <c r="M23" s="60">
         <v>0</v>
@@ -8457,26 +11054,26 @@
       </c>
       <c r="O23" s="59">
         <f t="shared" si="10"/>
-        <v>7.1307686631385252</v>
+        <v>6.4725816934726481</v>
       </c>
       <c r="P23" s="111">
         <f>P22</f>
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q23" s="60"/>
       <c r="R23" s="60"/>
       <c r="S23" s="56"/>
       <c r="T23" s="64">
         <f>O23/P23</f>
-        <v>1.5171848219443671E-2</v>
+        <v>1.3742211663423881E-2</v>
       </c>
       <c r="U23" s="64">
         <f>U22+U21</f>
-        <v>0.65850379585867813</v>
+        <v>0.65789672387666087</v>
       </c>
       <c r="V23" s="64">
         <f>V22+V21</f>
-        <v>-7.7504367826996656E-2</v>
+        <v>-6.8221821656550219E-2</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8519,7 +11116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U15"/>
@@ -8547,11 +11144,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
@@ -8839,11 +11436,11 @@
       </c>
       <c r="K10" s="38">
         <f ca="1">pricer_sf!M11</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="L10" s="38">
         <f ca="1">pricer_sf!N11</f>
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="M10" s="10">
         <f>pricer_sf!O11</f>
@@ -8921,11 +11518,11 @@
       </c>
       <c r="K11" s="38">
         <f ca="1">pricer_sf!M12</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="L11" s="38">
         <f ca="1">pricer_sf!N12</f>
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="M11" s="10">
         <f>pricer_sf!O12</f>
@@ -9003,11 +11600,11 @@
       </c>
       <c r="K12" s="38">
         <f ca="1">pricer_sf!M13</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="L12" s="38">
         <f ca="1">pricer_sf!N13</f>
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="M12" s="10">
         <f>pricer_sf!O13</f>
@@ -9085,11 +11682,11 @@
       </c>
       <c r="K13" s="38">
         <f ca="1">pricer_sf!M14</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="L13" s="38">
         <f ca="1">pricer_sf!N14</f>
-        <v>43410</v>
+        <v>43412</v>
       </c>
       <c r="M13" s="10">
         <f>pricer_sf!O14</f>
@@ -9167,11 +11764,11 @@
       </c>
       <c r="K14" s="38">
         <f ca="1">pricer_sf!M15</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="L14" s="38">
         <f ca="1">pricer_sf!N15</f>
-        <v>43410</v>
+        <v>43412</v>
       </c>
       <c r="M14" s="10">
         <f>pricer_sf!O15</f>
@@ -9249,11 +11846,11 @@
       </c>
       <c r="K15" s="38">
         <f ca="1">pricer_sf!M16</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="L15" s="38">
         <f ca="1">pricer_sf!N16</f>
-        <v>43410</v>
+        <v>43412</v>
       </c>
       <c r="M15" s="10">
         <f>pricer_sf!O16</f>
@@ -9298,7 +11895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F33"/>
@@ -9908,7 +12505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y39"/>
@@ -9939,10 +12536,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="140"/>
+      <c r="C1" s="144"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -10090,7 +12687,7 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>4105</v>
+        <v>4078</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -10107,11 +12704,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43257</v>
+        <v>43259</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -10128,18 +12725,18 @@
       </c>
       <c r="S8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-82.100000000000009</v>
+        <v>-81.56</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
       <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>2.6991780821917808</v>
+        <v>2.6814246575342469</v>
       </c>
       <c r="V8" s="24">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>84.799178082191787</v>
+        <v>84.241424657534253</v>
       </c>
       <c r="W8" s="26">
         <f>V8/H8</f>
@@ -10193,11 +12790,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43407</v>
+        <v>43409</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -10305,11 +12902,11 @@
       </c>
       <c r="M11" s="8">
         <f t="shared" ref="M11:M16" ca="1" si="1">TODAY()</f>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ref="N11:N16" ca="1" si="2">M11+O11</f>
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="O11" s="10">
         <v>91</v>
@@ -10392,11 +12989,11 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="O12" s="10">
         <v>91</v>
@@ -10479,11 +13076,11 @@
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43318</v>
+        <v>43320</v>
       </c>
       <c r="O13" s="10">
         <v>91</v>
@@ -10566,11 +13163,11 @@
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43410</v>
+        <v>43412</v>
       </c>
       <c r="O14" s="10">
         <v>183</v>
@@ -10653,11 +13250,11 @@
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43410</v>
+        <v>43412</v>
       </c>
       <c r="O15" s="10">
         <v>183</v>
@@ -10740,11 +13337,11 @@
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43410</v>
+        <v>43412</v>
       </c>
       <c r="O16" s="10">
         <v>183</v>
@@ -11425,12 +14022,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -11615,1034 +14212,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:U39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="9.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="7" style="6" customWidth="1"/>
-    <col min="5" max="11" width="9" style="6"/>
-    <col min="12" max="12" width="8.125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="9" style="6"/>
-    <col min="14" max="14" width="7.25" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9" style="6"/>
-    <col min="16" max="16" width="10.125" style="6" customWidth="1"/>
-    <col min="17" max="18" width="6.5" style="6" customWidth="1"/>
-    <col min="19" max="20" width="9" style="6"/>
-    <col min="21" max="21" width="13.75" style="6" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="142" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="142"/>
-    </row>
-    <row r="2" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>43061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="27"/>
-      <c r="B8" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="19">
-        <f>IF(D8="中金买入",1,-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="20">
-        <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>4105</v>
-      </c>
-      <c r="I8" s="19">
-        <v>3800</v>
-      </c>
-      <c r="J8" s="21">
-        <f ca="1">TODAY()</f>
-        <v>43227</v>
-      </c>
-      <c r="K8" s="21">
-        <f ca="1">J8+L8</f>
-        <v>43257</v>
-      </c>
-      <c r="L8" s="19">
-        <v>30</v>
-      </c>
-      <c r="M8" s="22">
-        <f>L8/365</f>
-        <v>8.2191780821917804E-2</v>
-      </c>
-      <c r="N8" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="O8" s="24">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>341.4754354885431</v>
-      </c>
-      <c r="P8" s="25">
-        <v>80</v>
-      </c>
-      <c r="Q8" s="24">
-        <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.6991780821917808</v>
-      </c>
-      <c r="R8" s="24">
-        <f>O8+Q8</f>
-        <v>344.17461357073489</v>
-      </c>
-      <c r="S8" s="26">
-        <f>R8/H8</f>
-        <v>8.3842780406999967E-2</v>
-      </c>
-      <c r="T8" s="24">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.82831672934844391</v>
-      </c>
-      <c r="U8" s="24">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>2.9858838550494511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
-      <c r="B9" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="10">
-        <f>IF(D9="中金买入",1,-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="11">
-        <v>100</v>
-      </c>
-      <c r="I9" s="10">
-        <v>100</v>
-      </c>
-      <c r="J9" s="8">
-        <f ca="1">TODAY()</f>
-        <v>43227</v>
-      </c>
-      <c r="K9" s="8">
-        <f ca="1">J9+L9</f>
-        <v>43257</v>
-      </c>
-      <c r="L9" s="10">
-        <v>30</v>
-      </c>
-      <c r="M9" s="12">
-        <f>L9/365</f>
-        <v>8.2191780821917804E-2</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="O9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9)</f>
-        <v>3.4671141943048909</v>
-      </c>
-      <c r="P9" s="15">
-        <v>80</v>
-      </c>
-      <c r="Q9" s="13">
-        <f>P9/10000*M9*H9*(-E9)</f>
-        <v>6.5753424657534254E-2</v>
-      </c>
-      <c r="R9" s="13">
-        <f>O9+Q9</f>
-        <v>3.5328676189624253</v>
-      </c>
-      <c r="S9" s="14">
-        <f>R9/H9</f>
-        <v>3.532867618962425E-2</v>
-      </c>
-      <c r="T9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9,$C$4)</f>
-        <v>0.52053074724724979</v>
-      </c>
-      <c r="U9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9)</f>
-        <v>0.11412144299254479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B10" s="13"/>
-      <c r="C10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="10">
-        <f>IF(D10="中金买入",1,-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="11">
-        <v>100</v>
-      </c>
-      <c r="I10" s="10">
-        <v>100</v>
-      </c>
-      <c r="J10" s="8">
-        <f ca="1">TODAY()</f>
-        <v>43227</v>
-      </c>
-      <c r="K10" s="8">
-        <f ca="1">J10+L10</f>
-        <v>43257</v>
-      </c>
-      <c r="L10" s="10">
-        <v>30</v>
-      </c>
-      <c r="M10" s="12">
-        <f>L10/365</f>
-        <v>8.2191780821917804E-2</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="O10" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10)</f>
-        <v>3.4671141943048909</v>
-      </c>
-      <c r="P10" s="15">
-        <v>80</v>
-      </c>
-      <c r="Q10" s="13">
-        <f>P10/10000*M10*H10*(-E10)</f>
-        <v>6.5753424657534254E-2</v>
-      </c>
-      <c r="R10" s="13">
-        <f>O10+Q10</f>
-        <v>3.5328676189624253</v>
-      </c>
-      <c r="S10" s="14">
-        <f>R10/H10</f>
-        <v>3.532867618962425E-2</v>
-      </c>
-      <c r="T10" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10,$C$4)</f>
-        <v>0.52053074724724979</v>
-      </c>
-      <c r="U10" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10)</f>
-        <v>0.11412144299254479</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B11" s="13"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B12" s="13"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B13" s="13"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B14" s="13"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B15" s="13"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B16" s="13"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B17" s="13"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B18" s="13"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B19" s="13"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B20" s="13"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B21" s="13"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B22" s="13"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B23" s="13"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B24" s="13"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B25" s="13"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B26" s="13"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B27" s="13"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B28" s="13"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B29" s="13"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B30" s="13"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B31" s="13"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B32" s="13"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B33" s="13"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B34" s="13"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B35" s="13"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B36" s="13"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B37" s="13"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B38" s="13"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B39" s="13"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>configs!$C$1:$C$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>G8:G39</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>configs!$B$1:$B$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>D8:D39</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>configs!$A$1:$A$36</xm:f>
-          </x14:formula1>
-          <xm:sqref>B40:B42 C8:C39</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>